--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -89,7 +89,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 10:03 AM</t>
+    <t>Sunday, 15 June, 2025 10:17 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -77,6 +77,30 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -89,7 +113,19 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 10:17 AM</t>
+    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>72.50</t>
+  </si>
+  <si>
+    <t>-14.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>Sunday, 15 June, 2025 10:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -813,42 +849,141 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>66.640000000000001</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>26</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>27</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>28</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>150.13999999999999</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>38</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>39</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>40</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +1007,25 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -92,15 +104,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>MUCO 15MG/5ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -125,7 +143,34 @@
     <t>0:-1</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 10:44 AM</t>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>Sunday, 15 June, 2025 11:01 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -816,7 +861,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -825,14 +870,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -842,14 +887,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -858,14 +903,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -882,7 +927,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -891,14 +936,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -908,14 +953,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -924,14 +969,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -941,49 +986,181 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>36</v>
       </c>
-      <c t="s" r="Q12" s="12">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>150.13999999999999</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>38</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>39</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>40</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>30</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>41</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>30</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>32</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>49</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>236.68000000000001</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>53</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>54</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>55</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1022,10 +1199,30 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -170,7 +170,7 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 11:01 AM</t>
+    <t>Sunday, 15 June, 2025 11:02 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -107,57 +107,57 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>6:9</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>72.50</t>
+  </si>
+  <si>
+    <t>-14.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>MUCO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>6:9</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>72.50</t>
-  </si>
-  <si>
-    <t>-14.5000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -170,7 +170,7 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 11:02 AM</t>
+    <t>Sunday, 15 June, 2025 11:21 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -943,7 +943,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -953,11 +953,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>30</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -986,11 +986,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>30</v>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1019,11 +1019,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1052,14 +1052,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1085,14 +1085,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>46</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1101,14 +1101,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -44,22 +44,73 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
     <t>27.0000</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
   </si>
   <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
@@ -101,9 +152,6 @@
     <t>63.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -113,9 +161,60 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>MELANOFREE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>MUCO 15MG/5ML SYRUP 100ML</t>
   </si>
   <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -140,6 +239,54 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>564.00</t>
+  </si>
+  <si>
+    <t>28.2000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -155,22 +302,34 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>Sunday, 15 June, 2025 11:21 AM</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 15 June, 2025 1:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -861,7 +1020,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -870,14 +1029,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -887,14 +1046,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -910,7 +1069,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -920,14 +1079,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -936,14 +1095,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -953,14 +1112,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -969,14 +1128,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -986,14 +1145,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1002,14 +1161,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1019,11 +1178,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1035,14 +1194,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1075,7 +1234,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1085,14 +1244,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1108,59 +1267,587 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>21</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>51</v>
       </c>
-      <c t="s" r="Q16" s="12">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>236.68000000000001</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>53</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>54</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>55</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>23</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>58</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>21</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>48</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>62</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>63</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>23</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>66</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>68</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>69</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>70</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>21</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>73</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>21</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>77</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>78</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>81</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>82</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>85</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>86</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>89</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>90</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>92</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>21</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>93</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>96</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>18</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>77</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>97</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>100</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>18</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>77</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>101</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>103</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>18</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>77</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>104</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>829.5</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>106</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>107</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>108</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1219,10 +1906,90 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -329,7 +329,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 1:41 PM</t>
+    <t>Sunday, 15 June, 2025 1:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -281,12 +293,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -299,6 +305,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -314,9 +329,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>21.0000</t>
   </si>
   <si>
@@ -329,7 +341,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 1:42 PM</t>
+    <t>Sunday, 15 June, 2025 2:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1218,7 +1230,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1227,14 +1239,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1244,14 +1256,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>46</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1267,7 +1279,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1277,11 +1289,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1293,14 +1305,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1310,14 +1322,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1326,14 +1338,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1366,7 +1378,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1376,14 +1388,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1392,14 +1404,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1409,11 +1421,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1425,14 +1437,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1442,14 +1454,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1465,7 +1477,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1475,14 +1487,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1491,14 +1503,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1515,7 +1527,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1531,7 +1543,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1541,14 +1553,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1570,18 +1582,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>79</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1597,13 +1609,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1614,7 +1626,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1680,7 +1692,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1696,7 +1708,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1706,14 +1718,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1722,31 +1734,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1755,7 +1767,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1768,18 +1780,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1788,7 +1800,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1801,53 +1813,119 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>105</v>
       </c>
-      <c t="s" r="Q32" s="12">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>18</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>81</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>99</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>18</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>81</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>108</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>829.5</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>106</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>107</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>108</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>871.5</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>110</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>111</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>112</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1986,10 +2064,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -137,6 +146,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -201,6 +219,12 @@
   </si>
   <si>
     <t>74.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>MUCO 15MG/5ML SYRUP 100ML</t>
@@ -1048,7 +1072,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1058,14 +1082,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1074,14 +1098,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1098,7 +1122,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1114,7 +1138,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1131,7 +1155,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1147,7 +1171,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1161,10 +1185,10 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1173,14 +1197,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1194,10 +1218,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1206,14 +1230,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1223,14 +1247,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1239,14 +1263,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1256,14 +1280,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1272,14 +1296,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1289,11 +1313,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1305,14 +1329,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1322,14 +1346,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1338,14 +1362,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1362,7 +1386,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1378,7 +1402,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1388,14 +1412,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1404,14 +1428,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1421,14 +1445,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1437,14 +1461,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1454,14 +1478,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1470,14 +1494,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1487,14 +1511,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1503,14 +1527,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1520,7 +1544,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1543,7 +1567,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1553,14 +1577,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1569,14 +1593,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1586,14 +1610,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1602,28 +1626,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1635,14 +1659,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1652,11 +1676,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1668,14 +1692,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1685,14 +1709,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1701,28 +1725,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1734,14 +1758,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1751,14 +1775,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1767,31 +1791,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1800,31 +1824,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1833,31 +1857,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1866,7 +1890,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1879,53 +1903,152 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>109</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>871.5</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>18</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>89</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>110</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c t="s" r="Q35" s="12">
         <v>112</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>113</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>18</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>89</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>107</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>115</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>18</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>89</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>116</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1027.5</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>118</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>119</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>120</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2074,10 +2197,25 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 2:19 PM</t>
+    <t>Sunday, 15 June, 2025 2:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>OXYPOL EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
     <t>PHYTO K 10 MG 50 F.C.TAB.</t>
   </si>
   <si>
@@ -365,7 +374,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 2:22 PM</t>
+    <t>Sunday, 15 June, 2025 4:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1699,7 +1708,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1716,7 +1725,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1725,7 +1734,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1738,18 +1747,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1758,31 +1767,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1791,14 +1800,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1808,11 +1817,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1824,14 +1833,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1841,14 +1850,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1857,14 +1866,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1874,14 +1883,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,31 +1899,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1936,7 +1945,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1947,7 +1956,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1956,7 +1965,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1969,18 +1978,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1989,7 +1998,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2002,53 +2011,86 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1027.5</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>118</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>18</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>92</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>119</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1035</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>121</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>122</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>123</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2212,10 +2254,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -374,7 +374,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 4:04 PM</t>
+    <t>Sunday, 15 June, 2025 4:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -320,6 +332,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>UNICTAM 750 MG I.M/I.V VIAL</t>
   </si>
   <si>
@@ -374,7 +395,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 4:27 PM</t>
+    <t>Sunday, 15 June, 2025 4:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1147,7 +1168,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1157,14 +1178,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1173,7 +1194,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1190,14 +1211,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1206,7 +1227,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1223,14 +1244,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1239,14 +1260,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1256,14 +1277,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1296,7 +1317,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1312,7 +1333,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1322,11 +1343,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1338,14 +1359,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1362,7 +1383,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1371,14 +1392,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1388,14 +1409,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1411,7 +1432,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1421,11 +1442,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1437,14 +1458,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1454,14 +1475,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1470,14 +1491,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1510,7 +1531,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1520,14 +1541,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1536,14 +1557,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1553,11 +1574,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1569,7 +1590,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1586,11 +1607,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1602,14 +1623,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1619,14 +1640,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1642,7 +1663,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1652,14 +1673,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1668,14 +1689,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1692,7 +1713,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1708,7 +1729,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1718,14 +1739,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1734,14 +1755,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1751,14 +1772,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1780,18 +1801,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1807,13 +1828,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1824,7 +1845,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1883,14 +1904,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1899,14 +1920,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1916,14 +1937,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1932,28 +1953,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1972,13 +1993,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2011,18 +2032,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2031,7 +2052,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2044,53 +2065,119 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1035</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>121</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>123</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>18</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>96</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>117</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>122</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
-        <v>123</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>125</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>18</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>96</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>126</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1090.6700000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>128</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>129</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>130</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2259,10 +2346,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -395,7 +395,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 4:28 PM</t>
+    <t>Sunday, 15 June, 2025 4:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -194,13 +203,34 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-90.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
   </si>
   <si>
     <t>LOADLESS 5/20MG 30 CAP</t>
@@ -293,15 +323,9 @@
     <t>-14.5000</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -338,7 +362,7 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>UNICTAM 750 MG I.M/I.V VIAL</t>
@@ -365,7 +389,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -386,6 +410,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>شامبو صانسيلك صغير 180ملل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -395,7 +428,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 4:52 PM</t>
+    <t>Sunday, 15 June, 2025 5:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1383,7 +1416,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1399,7 +1432,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1409,14 +1442,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1425,14 +1458,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1442,14 +1475,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1458,14 +1491,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1498,7 +1531,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1515,7 +1548,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1524,14 +1557,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1545,10 +1578,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1557,31 +1590,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1607,14 +1640,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1623,14 +1656,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1640,14 +1673,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1656,14 +1689,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1673,14 +1706,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1689,14 +1722,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1706,11 +1739,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1722,14 +1755,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1739,14 +1772,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1755,14 +1788,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1779,7 +1812,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1795,7 +1828,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1812,7 +1845,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1821,31 +1854,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1854,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1871,14 +1904,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1887,14 +1920,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1904,14 +1937,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,31 +1953,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,14 +1986,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1970,14 +2003,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1986,14 +2019,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2010,7 +2043,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2019,31 +2052,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2052,31 +2085,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2085,31 +2118,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2118,7 +2151,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2131,53 +2164,185 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>127</v>
       </c>
-      <c t="s" r="Q40" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1090.6700000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>18</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>72</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>128</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c t="s" r="Q41" s="12">
         <v>130</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>131</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>18</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>72</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>125</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>133</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>46</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>72</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>134</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>136</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>18</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>72</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>137</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1092.6700000000001</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>139</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>140</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>141</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2356,10 +2521,30 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -428,7 +428,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 5:11 PM</t>
+    <t>Sunday, 15 June, 2025 5:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BON-ONE 0.25 MCG 30 TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
@@ -356,6 +365,12 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>SODIUM BICARB 1000MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -380,9 +395,6 @@
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -419,6 +431,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -428,7 +449,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 5:17 PM</t>
+    <t>Sunday, 15 June, 2025 5:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1222,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1211,11 +1232,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1227,14 +1248,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1251,7 +1272,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1284,7 +1305,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1314,10 +1335,10 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1326,14 +1347,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1347,10 +1368,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1359,14 +1380,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1376,14 +1397,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1392,14 +1413,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1416,7 +1437,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1449,7 +1470,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1465,7 +1486,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1475,14 +1496,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1491,14 +1512,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1508,14 +1529,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1524,14 +1545,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1548,7 +1569,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1557,14 +1578,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1574,14 +1595,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1590,31 +1611,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1623,28 +1644,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1663,7 +1684,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1673,11 +1694,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1689,14 +1710,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1713,7 +1734,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1729,7 +1750,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1739,11 +1760,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1755,7 +1776,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1772,11 +1793,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1788,14 +1809,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1805,14 +1826,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1821,14 +1842,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1845,7 +1866,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1861,7 +1882,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1871,14 +1892,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1887,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1911,7 +1932,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1927,7 +1948,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1944,7 +1965,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1966,7 +1987,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1977,7 +1998,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1993,24 +2014,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2019,14 +2040,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2036,11 +2057,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2052,14 +2073,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2076,7 +2097,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2098,18 +2119,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2125,7 +2146,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2142,7 +2163,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,31 +2172,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,31 +2205,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,7 +2238,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2230,18 +2251,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2250,31 +2271,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2283,7 +2304,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2296,53 +2317,152 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>137</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>49</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>75</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>138</v>
       </c>
-      <c t="s" r="Q44" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1092.6700000000001</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>140</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
         <v>141</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>75</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>99</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>143</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>18</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>75</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>144</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1192.0699999999999</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>146</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>147</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>148</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2541,10 +2661,25 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 5:27 PM</t>
+    <t>Sunday, 15 June, 2025 5:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -155,6 +155,9 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -380,6 +383,15 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>TOBRADEX EYE OINT. 3.5 GM</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>42.5000</t>
+  </si>
+  <si>
     <t>UNICTAM 750 MG I.M/I.V VIAL</t>
   </si>
   <si>
@@ -431,6 +443,18 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>فازلين بيور كبير</t>
   </si>
   <si>
@@ -449,7 +473,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 5:28 PM</t>
+    <t>Sunday, 15 June, 2025 5:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1420,7 +1444,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1430,11 +1454,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1446,14 +1470,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1463,14 +1487,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1479,7 +1503,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1496,14 +1520,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1512,14 +1536,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1529,14 +1553,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1545,14 +1569,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1562,14 +1586,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1578,14 +1602,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1595,14 +1619,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1611,14 +1635,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1628,14 +1652,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1644,31 +1668,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1677,28 +1701,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1710,14 +1734,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1727,11 +1751,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1743,14 +1767,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1760,14 +1784,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1776,14 +1800,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1793,11 +1817,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1809,7 +1833,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1826,11 +1850,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1849,7 +1873,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1859,14 +1883,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1875,14 +1899,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1892,14 +1916,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1908,14 +1932,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1925,14 +1949,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1941,14 +1965,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1958,14 +1982,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1974,14 +1998,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1991,14 +2015,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2007,7 +2031,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2020,18 +2044,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2040,31 +2064,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2073,14 +2097,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2090,11 +2114,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2106,28 +2130,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2139,31 +2163,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2172,14 +2196,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2189,14 +2213,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2205,14 +2229,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2222,14 +2246,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2238,31 +2262,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2271,31 +2295,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2304,7 +2328,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2317,18 +2341,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2337,31 +2361,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2370,31 +2394,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2403,66 +2427,165 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>144</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
         <v>145</v>
       </c>
-      <c t="s" r="Q47" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1192.0699999999999</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>76</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>146</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>147</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c t="s" r="Q48" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>148</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>149</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>76</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>100</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>151</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>18</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>76</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>152</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>1316.5699999999999</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>154</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>155</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>156</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2676,10 +2799,25 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -296,6 +305,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>OCTOVENT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -422,18 +443,18 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>21.0000</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>شامبو صانسيلك صغير 180ملل</t>
   </si>
   <si>
@@ -473,7 +494,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 5:36 PM</t>
+    <t>Sunday, 15 June, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1708,24 +1729,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1734,28 +1755,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1774,7 +1795,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1784,11 +1805,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1800,14 +1821,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1824,7 +1845,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1840,7 +1861,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1850,11 +1871,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1866,7 +1887,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1883,11 +1904,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1899,14 +1920,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1916,14 +1937,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1932,14 +1953,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1956,7 +1977,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1989,7 +2010,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2005,7 +2026,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2038,7 +2059,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2048,14 +2069,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2064,28 +2085,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2097,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2121,7 +2142,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2137,24 +2158,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2163,28 +2184,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2196,14 +2217,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2213,14 +2234,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2229,31 +2250,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2262,14 +2283,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2279,14 +2300,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2295,14 +2316,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2312,14 +2333,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2328,31 +2349,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2361,31 +2382,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2407,18 +2428,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2427,31 +2448,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2460,31 +2481,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2500,17 +2521,17 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2533,59 +2554,125 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1316.5699999999999</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>154</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>155</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>156</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>79</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>107</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>158</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>18</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>79</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>159</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>1515.5699999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>161</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>162</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>163</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2814,10 +2901,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>GERDCARE 5 MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>67.50</t>
+  </si>
+  <si>
+    <t>22.2750</t>
+  </si>
+  <si>
     <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
   </si>
   <si>
@@ -326,6 +335,15 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -347,6 +365,18 @@
     <t>7.5000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PHYTO K 10 MG 50 F.C.TAB.</t>
   </si>
   <si>
@@ -494,7 +524,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 6:17 PM</t>
+    <t>Sunday, 15 June, 2025 6:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1729,7 +1759,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1746,7 +1776,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1762,24 +1792,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1788,28 +1818,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1828,7 +1858,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,11 +1868,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1854,14 +1884,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1878,7 +1908,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1894,7 +1924,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1904,11 +1934,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1920,7 +1950,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1937,11 +1967,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1953,14 +1983,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1970,14 +2000,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1986,14 +2016,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2003,14 +2033,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2019,14 +2049,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2059,7 +2089,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2069,14 +2099,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2085,14 +2115,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2102,11 +2132,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2118,14 +2148,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2142,7 +2172,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2158,13 +2188,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2224,7 +2254,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2234,14 +2264,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2250,31 +2280,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2290,7 +2320,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2300,14 +2330,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2316,14 +2346,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,14 +2363,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2349,31 +2379,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2382,14 +2412,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2399,14 +2429,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2415,31 +2445,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2448,31 +2478,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2481,31 +2511,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2514,31 +2544,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2547,20 +2577,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2568,10 +2598,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>154</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2587,24 +2617,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>157</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2620,13 +2650,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2641,38 +2671,137 @@
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>1515.5699999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>161</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
         <v>162</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>82</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>163</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>165</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>166</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>82</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>113</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>168</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>18</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>82</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>169</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>1580.345</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>171</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>172</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>173</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2911,10 +3040,25 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -524,7 +524,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 6:47 PM</t>
+    <t>Sunday, 15 June, 2025 6:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -110,13 +122,13 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
-    <t>32.6700</t>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>CALAMYL LOTION 100 ML</t>
@@ -263,6 +275,15 @@
     <t>300.00</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
     <t>LOADLESS 5/20MG 30 CAP</t>
   </si>
   <si>
@@ -422,9 +443,6 @@
     <t>SODIUM BICARB 1000MG 30 CAPS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -464,9 +482,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -524,7 +539,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 6:53 PM</t>
+    <t>Sunday, 15 June, 2025 6:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1215,7 +1230,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1224,14 +1239,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1248,7 +1263,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1257,14 +1272,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1281,7 +1296,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1297,7 +1312,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1307,11 +1322,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1323,14 +1338,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1363,7 +1378,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1380,7 +1395,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1389,14 +1404,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1406,14 +1421,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1422,14 +1437,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1439,14 +1454,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1455,14 +1470,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1472,14 +1487,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1495,7 +1510,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1505,14 +1520,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1521,14 +1536,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1538,14 +1553,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1561,7 +1576,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1571,14 +1586,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1587,14 +1602,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1604,14 +1619,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1620,14 +1635,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1644,7 +1659,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1653,14 +1668,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1670,14 +1685,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1693,7 +1708,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1703,14 +1718,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1726,7 +1741,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1740,10 +1755,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1752,14 +1767,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1769,14 +1784,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1785,14 +1800,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1802,14 +1817,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1818,31 +1833,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1858,21 +1873,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1884,14 +1899,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1924,7 +1939,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1941,7 +1956,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1957,7 +1972,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,14 +1982,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1983,14 +1998,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2000,14 +2015,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2016,14 +2031,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2033,14 +2048,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,14 +2064,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2066,14 +2081,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2082,14 +2097,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2106,7 +2121,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2122,7 +2137,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2132,14 +2147,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2148,14 +2163,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2172,7 +2187,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2188,7 +2203,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2205,7 +2220,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2254,7 +2269,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2271,7 +2286,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2287,24 +2302,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2313,14 +2328,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2337,7 +2352,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2353,24 +2368,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2379,28 +2394,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2412,14 +2427,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2429,14 +2444,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2445,31 +2460,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2485,7 +2500,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2495,14 +2510,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2511,14 +2526,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2528,14 +2543,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>137</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2544,31 +2559,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2584,13 +2599,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2598,10 +2613,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>154</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2617,24 +2632,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>157</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2643,31 +2658,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2676,31 +2691,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2709,31 +2724,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2742,66 +2757,132 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>170</v>
       </c>
-      <c t="s" r="Q55" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>1580.345</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
         <v>171</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>86</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>120</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>172</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c t="s" r="Q56" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>173</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>22</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>86</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>174</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>1722.2049999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>176</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>177</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>178</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3055,10 +3136,20 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -539,7 +539,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 6:58 PM</t>
+    <t>Sunday, 15 June, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -167,6 +167,21 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DEXATROL EYE/EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -239,6 +254,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -269,9 +293,6 @@
     <t>0:17</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>300.00</t>
   </si>
   <si>
@@ -299,12 +320,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>MELANOFREE CREAM 30 GM</t>
   </si>
   <si>
@@ -368,13 +383,13 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
-    <t>6:9</t>
+    <t>6:7</t>
   </si>
   <si>
     <t>40.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>0:3</t>
   </si>
   <si>
     <t>OXYPOL EYE OINT. 5 GM</t>
@@ -407,6 +422,21 @@
     <t>-14.5000</t>
   </si>
   <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -461,6 +491,15 @@
     <t>42.5000</t>
   </si>
   <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
     <t>UNICTAM 750 MG I.M/I.V VIAL</t>
   </si>
   <si>
@@ -539,7 +578,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 7:01 PM</t>
+    <t>Sunday, 15 June, 2025 7:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1543,24 +1582,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1569,14 +1608,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1586,11 +1625,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -1602,14 +1641,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1619,14 +1658,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1635,7 +1674,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1652,14 +1691,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1668,14 +1707,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1685,14 +1724,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1725,7 +1764,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1734,14 +1773,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1751,14 +1790,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1767,14 +1806,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1784,14 +1823,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1800,7 +1839,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1817,11 +1856,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1833,14 +1872,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1850,11 +1889,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1866,20 +1905,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1887,7 +1926,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1899,14 +1938,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1916,14 +1955,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1932,28 +1971,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1965,14 +2004,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2005,7 +2044,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2022,7 +2061,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2038,7 +2077,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2048,14 +2087,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2071,7 +2110,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2081,11 +2120,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2097,14 +2136,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2114,14 +2153,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2137,7 +2176,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2147,11 +2186,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2163,14 +2202,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2180,14 +2219,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2196,14 +2235,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2213,11 +2252,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2229,14 +2268,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2246,14 +2285,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2262,14 +2301,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2279,11 +2318,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2295,14 +2334,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2312,14 +2351,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2328,14 +2367,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2345,14 +2384,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2361,31 +2400,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2394,14 +2433,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2411,14 +2450,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2427,14 +2466,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2444,11 +2483,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2460,31 +2499,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2493,31 +2532,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2526,14 +2565,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2543,14 +2582,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2559,14 +2598,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2576,14 +2615,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2592,31 +2631,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2625,31 +2664,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2665,13 +2704,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2679,10 +2718,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>159</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2698,24 +2737,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2731,21 +2770,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2757,31 +2796,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2790,31 +2829,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2823,7 +2862,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2836,53 +2875,218 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>173</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>22</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>54</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>169</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>175</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>1722.2049999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>176</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>59</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>54</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
         <v>177</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
         <v>178</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c t="s" r="Q59" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>179</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>180</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>54</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>181</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>183</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>184</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>54</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>125</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>186</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>22</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>54</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>187</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>1913.8250000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>189</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>190</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>191</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3146,10 +3350,35 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -578,7 +578,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 7:13 PM</t>
+    <t>Sunday, 15 June, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -206,6 +215,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -215,6 +233,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -509,9 +536,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -527,7 +551,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -578,7 +605,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 7:15 PM</t>
+    <t>Sunday, 15 June, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1483,7 +1510,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1500,7 +1527,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1530,10 +1557,10 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1542,14 +1569,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1563,10 +1590,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1575,28 +1602,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1608,31 +1635,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1641,14 +1668,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1658,11 +1685,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -1674,14 +1701,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1698,7 +1725,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1731,7 +1758,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1747,7 +1774,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1757,14 +1784,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1773,14 +1800,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1790,11 +1817,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1806,14 +1833,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1823,14 +1850,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1839,14 +1866,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1856,14 +1883,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1872,14 +1899,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1889,11 +1916,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1929,7 +1956,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1938,14 +1965,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1955,14 +1982,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1971,20 +1998,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1992,10 +2019,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2011,7 +2038,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2044,7 +2071,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2061,7 +2088,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2083,15 +2110,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2103,14 +2130,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2120,14 +2147,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2136,7 +2163,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2153,14 +2180,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2169,14 +2196,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2186,14 +2213,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2202,14 +2229,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2219,14 +2246,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2235,14 +2262,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2252,7 +2279,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2275,7 +2302,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2285,11 +2312,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2301,14 +2328,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2318,14 +2345,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2334,14 +2361,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2351,14 +2378,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>126</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2367,14 +2394,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2384,11 +2411,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2400,14 +2427,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2417,14 +2444,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2433,14 +2460,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,14 +2477,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>80</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2466,14 +2493,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2483,14 +2510,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2499,14 +2526,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2516,14 +2543,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2532,7 +2559,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2545,18 +2572,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2565,14 +2592,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2582,11 +2609,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2598,14 +2625,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2615,14 +2642,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2631,31 +2658,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2671,7 +2698,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2681,14 +2708,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2697,14 +2724,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2714,14 +2741,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2730,28 +2757,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2770,7 +2797,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2780,14 +2807,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2796,14 +2823,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2813,14 +2840,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2829,31 +2856,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2862,31 +2889,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>172</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2895,31 +2922,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2935,13 +2962,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2949,10 +2976,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2961,31 +2988,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2994,31 +3021,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3027,66 +3054,165 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>188</v>
       </c>
-      <c t="s" r="Q62" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>1913.8250000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
         <v>189</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>57</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>190</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>192</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>193</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>57</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>134</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>195</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>22</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>57</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>196</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2141.1550000000002</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>198</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>199</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>200</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3375,10 +3501,25 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACRETIN 0.05% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>124.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
   </si>
   <si>
@@ -521,9 +530,6 @@
     <t>TRITTICO 100MG 20 TAB.</t>
   </si>
   <si>
-    <t>43.00</t>
-  </si>
-  <si>
     <t>21.5000</t>
   </si>
   <si>
@@ -605,7 +611,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 7:19 PM</t>
+    <t>Sunday, 15 June, 2025 7:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1263,7 +1269,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1272,14 +1278,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1289,14 +1295,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1329,7 +1335,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1338,14 +1344,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1362,7 +1368,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1378,7 +1384,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1388,14 +1394,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1404,14 +1410,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1428,7 +1434,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1444,7 +1450,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1461,7 +1467,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1470,14 +1476,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1487,14 +1493,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1510,7 +1516,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1527,7 +1533,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1543,7 +1549,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1560,7 +1566,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1576,7 +1582,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1590,10 +1596,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1602,14 +1608,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1623,10 +1629,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1635,31 +1641,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1668,31 +1674,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1701,14 +1707,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1718,14 +1724,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1734,14 +1740,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1758,7 +1764,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1774,7 +1780,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1791,7 +1797,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1807,7 +1813,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1824,7 +1830,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1840,7 +1846,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1857,7 +1863,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1873,7 +1879,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1883,14 +1889,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1899,14 +1905,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,14 +1922,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1932,14 +1938,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1956,7 +1962,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1965,14 +1971,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1982,14 +1988,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2005,7 +2011,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2019,10 +2025,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2031,14 +2037,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,14 +2054,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2071,7 +2077,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2088,7 +2094,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2104,24 +2110,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2137,24 +2143,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2170,7 +2176,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2187,7 +2193,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2203,7 +2209,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2213,14 +2219,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2229,14 +2235,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2246,14 +2252,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2269,7 +2275,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2279,14 +2285,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2295,14 +2301,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,14 +2318,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,14 +2334,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,14 +2351,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2361,14 +2367,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,14 +2384,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2394,14 +2400,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2418,7 +2424,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2434,7 +2440,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2451,7 +2457,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2467,7 +2473,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,14 +2483,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,14 +2499,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2514,10 +2520,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>138</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2533,7 +2539,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,14 +2549,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,14 +2565,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2583,7 +2589,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2599,7 +2605,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,14 +2615,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,14 +2631,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,14 +2648,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2658,31 +2664,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2698,24 +2704,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2730,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2747,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,31 +2763,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2790,31 +2796,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2830,7 +2836,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2847,7 +2853,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2863,7 +2869,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2880,7 +2886,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2896,7 +2902,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2906,14 +2912,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2929,7 +2935,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2939,14 +2945,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2962,24 +2968,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2995,13 +3001,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3009,10 +3015,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>181</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3021,31 +3027,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>183</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>184</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3054,31 +3060,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,31 +3093,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3120,31 +3126,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3153,66 +3159,99 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>197</v>
       </c>
-      <c t="s" r="Q65" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2141.1550000000002</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>26</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>60</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>198</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>199</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2184.1550000000002</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
         <v>200</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>201</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>202</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3516,10 +3555,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -611,7 +611,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 7:20 PM</t>
+    <t>Sunday, 15 June, 2025 7:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>BEGONIA SHAMPOO 150 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
   </si>
   <si>
@@ -176,13 +185,13 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:2</t>
+    <t>7:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DELAREX 5MG 30TAB</t>
@@ -197,9 +206,6 @@
     <t>72.00</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>DEXATROL EYE/EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -539,6 +545,15 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -551,16 +566,28 @@
     <t>3.00</t>
   </si>
   <si>
+    <t xml:space="preserve">حجر </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>15:0</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -611,7 +638,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 7:25 PM</t>
+    <t>Sunday, 15 June, 2025 7:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1384,7 +1411,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1417,7 +1444,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1427,14 +1454,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1443,14 +1470,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1483,7 +1510,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1500,7 +1527,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1509,14 +1536,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1526,14 +1553,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1549,7 +1576,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1582,7 +1609,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1599,7 +1626,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1615,7 +1642,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1629,10 +1656,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1641,14 +1668,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1662,10 +1689,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1674,31 +1701,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1707,31 +1734,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1740,14 +1767,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1757,11 +1784,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1773,14 +1800,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1790,14 +1817,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1806,14 +1833,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1823,11 +1850,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1839,14 +1866,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1856,14 +1883,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1872,14 +1899,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1889,14 +1916,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1905,14 +1932,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1922,14 +1949,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1938,14 +1965,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1955,14 +1982,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1971,14 +1998,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1988,14 +2015,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2004,7 +2031,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2021,14 +2048,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2037,14 +2064,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2054,14 +2081,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2077,7 +2104,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2091,10 +2118,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2103,14 +2130,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2120,14 +2147,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2136,31 +2163,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2169,20 +2196,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2190,7 +2217,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2202,7 +2229,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2219,11 +2246,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2235,14 +2262,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2252,11 +2279,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2275,7 +2302,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2285,14 +2312,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2301,14 +2328,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2318,7 +2345,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2351,11 +2378,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2367,14 +2394,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2384,14 +2411,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2400,14 +2427,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2417,14 +2444,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2433,14 +2460,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2450,11 +2477,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2466,14 +2493,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2483,11 +2510,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2499,14 +2526,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2516,14 +2543,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2532,14 +2559,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2549,14 +2576,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2565,14 +2592,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2582,14 +2609,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2598,14 +2625,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2615,14 +2642,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2631,14 +2658,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2648,14 +2675,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2664,14 +2691,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2681,14 +2708,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2697,28 +2724,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2730,31 +2757,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2763,14 +2790,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2780,11 +2807,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2796,28 +2823,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2829,31 +2856,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2862,14 +2889,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2879,14 +2906,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2895,14 +2922,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2912,14 +2939,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2935,7 +2962,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2945,14 +2972,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2968,7 +2995,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2978,14 +3005,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3001,13 +3028,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3015,10 +3042,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3027,31 +3054,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>183</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3060,7 +3087,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3073,18 +3100,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>186</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3093,28 +3120,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3126,31 +3153,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3159,31 +3186,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3192,66 +3219,165 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>199</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2184.1550000000002</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
         <v>200</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>63</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
         <v>201</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>202</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>203</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>204</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>63</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>139</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>206</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>26</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>63</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>207</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>2319.0349999999999</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>209</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>210</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>211</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3560,10 +3686,25 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -638,7 +638,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 7:33 PM</t>
+    <t>Sunday, 15 June, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -176,6 +185,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -329,6 +347,21 @@
     <t>123.0000</t>
   </si>
   <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -545,6 +578,15 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -560,6 +602,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -593,10 +644,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>شامبو صانسيلك صغير 180ملل</t>
@@ -611,15 +659,9 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>فازلين بيور كبير</t>
   </si>
   <si>
@@ -638,7 +680,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 7:39 PM</t>
+    <t>Sunday, 15 June, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1477,7 +1519,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1487,14 +1529,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1503,14 +1545,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1543,7 +1585,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1560,7 +1602,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1569,14 +1611,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1586,14 +1628,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1609,7 +1651,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1642,7 +1684,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1659,7 +1701,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1675,7 +1717,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1689,10 +1731,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1701,14 +1743,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1725,7 +1767,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1741,24 +1783,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1767,14 +1809,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1784,14 +1826,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1800,31 +1842,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1833,7 +1875,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1850,14 +1892,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1866,14 +1908,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1890,7 +1932,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1923,7 +1965,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1939,7 +1981,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1972,7 +2014,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1982,14 +2024,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1998,14 +2040,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2015,14 +2057,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2031,14 +2073,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2048,14 +2090,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2064,14 +2106,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2081,14 +2123,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2097,14 +2139,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2114,14 +2156,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2130,7 +2172,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2147,11 +2189,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2163,14 +2205,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2180,11 +2222,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2203,21 +2245,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2236,7 +2278,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2253,7 +2295,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2269,7 +2311,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2286,7 +2328,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2302,7 +2344,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2312,14 +2354,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2335,24 +2377,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2378,14 +2420,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2394,7 +2436,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2411,14 +2453,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2427,14 +2469,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2444,11 +2486,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2460,14 +2502,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2500,7 +2542,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2510,11 +2552,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2526,14 +2568,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2543,11 +2585,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2559,14 +2601,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2576,14 +2618,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2592,14 +2634,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2609,11 +2651,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2625,14 +2667,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2642,14 +2684,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2658,14 +2700,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2675,14 +2717,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2691,14 +2733,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2708,14 +2750,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2724,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2741,11 +2783,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2757,20 +2799,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2781,7 +2823,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2797,7 +2839,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2807,14 +2849,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2823,14 +2865,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2840,11 +2882,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2856,31 +2898,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2889,31 +2931,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2922,14 +2964,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2946,7 +2988,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2962,7 +3004,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2972,11 +3014,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -2988,31 +3030,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3021,14 +3063,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3038,14 +3080,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3054,14 +3096,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3071,14 +3113,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3087,31 +3129,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3120,28 +3162,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3160,13 +3202,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3177,7 +3219,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>192</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3186,31 +3228,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>195</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3219,31 +3261,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3252,28 +3294,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3285,31 +3327,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3318,66 +3360,264 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>206</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>26</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>69</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>207</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>208</v>
       </c>
-      <c t="s" r="Q69" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>2319.0349999999999</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c t="s" r="Q70" s="12">
         <v>209</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>210</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>26</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>69</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>201</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>211</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>212</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>73</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>69</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>213</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>215</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>211</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>69</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>216</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>217</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>218</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>69</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>150</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>220</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>26</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>69</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>221</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>2644.4349999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>223</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>224</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>225</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3701,10 +3941,40 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -203,27 +203,33 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:1</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
     <t>23.7600</t>
   </si>
   <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>DEXATROL EYE/EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -284,9 +290,6 @@
     <t>108.00</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>0:4</t>
   </si>
   <si>
@@ -464,9 +467,6 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>OXYPOL EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -479,13 +479,13 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>5:0</t>
+    <t>4:3</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
   </si>
   <si>
     <t>PHYTO K 10 MG 50 F.C.TAB.</t>
@@ -635,10 +635,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -680,7 +680,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 7:43 PM</t>
+    <t>Sunday, 15 June, 2025 7:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1833,7 +1833,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1842,28 +1842,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1908,14 +1908,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1925,11 +1925,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1958,11 +1958,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1991,11 +1991,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2024,11 +2024,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2057,11 +2057,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2073,14 +2073,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2090,14 +2090,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2106,14 +2106,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2123,11 +2123,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2156,14 +2156,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2189,11 +2189,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2255,11 +2255,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2288,11 +2288,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2321,11 +2321,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>48</v>
@@ -2370,24 +2370,24 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2420,11 +2420,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2453,11 +2453,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2469,14 +2469,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2486,11 +2486,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2519,11 +2519,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2585,11 +2585,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2601,14 +2601,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2618,11 +2618,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2634,14 +2634,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2651,11 +2651,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2684,11 +2684,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2717,11 +2717,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2733,14 +2733,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2750,14 +2750,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>151</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2773,7 +2773,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2823,7 +2823,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2856,7 +2856,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2944,7 +2944,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3043,7 +3043,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3070,7 +3070,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3179,11 +3179,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3340,7 +3340,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3373,7 +3373,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3406,7 +3406,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3439,7 +3439,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3466,13 +3466,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3505,7 +3505,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3538,11 +3538,11 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3571,7 +3571,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3587,7 +3587,7 @@
     </row>
     <row r="76" ht="25.5" customHeight="1">
       <c r="P76" s="13">
-        <v>2644.4349999999999</v>
+        <v>2681.3150000000001</v>
       </c>
       <c r="Q76" s="13"/>
     </row>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -308,6 +308,9 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -395,9 +398,6 @@
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>MELANOFREE CREAM 30 GM</t>
   </si>
   <si>
@@ -590,6 +590,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -644,9 +647,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>شامبو صانسيلك صغير 180ملل</t>
   </si>
   <si>
@@ -680,7 +680,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 7:50 PM</t>
+    <t>Sunday, 15 June, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1948,7 +1948,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2146,7 +2146,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2156,14 +2156,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2189,11 +2189,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2255,11 +2255,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2288,11 +2288,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2321,11 +2321,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>48</v>
@@ -2370,14 +2370,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2420,11 +2420,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2453,11 +2453,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2469,14 +2469,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2575,7 +2575,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2856,7 +2856,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3070,7 +3070,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3235,7 +3235,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3245,11 +3245,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3261,14 +3261,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>48</v>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3311,11 +3311,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3360,14 +3360,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3377,11 +3377,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3410,14 +3410,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3443,14 +3443,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3499,7 +3499,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -386,6 +386,12 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>LIMITLESS OSTEODENSE TAB</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
     <t>LOADLESS 5/20MG 30 CAP</t>
   </si>
   <si>
@@ -680,7 +686,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 8:21 PM</t>
+    <t>Sunday, 15 June, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2443,24 +2449,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2469,14 +2475,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2486,11 +2492,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2502,14 +2508,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2519,14 +2525,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2535,14 +2541,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2552,7 +2558,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2575,7 +2581,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2585,11 +2591,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2601,14 +2607,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2618,14 +2624,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2634,14 +2640,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2651,14 +2657,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2667,14 +2673,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2684,11 +2690,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2700,14 +2706,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2717,11 +2723,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2733,14 +2739,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2750,14 +2756,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2766,14 +2772,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2787,10 +2793,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2799,14 +2805,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,14 +2822,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2832,14 +2838,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2849,14 +2855,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2865,14 +2871,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,14 +2888,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2898,14 +2904,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2915,14 +2921,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2931,28 +2937,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2964,31 +2970,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2997,14 +3003,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,11 +3020,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3030,28 +3036,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3063,31 +3069,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3096,14 +3102,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3113,14 +3119,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3129,14 +3135,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3146,14 +3152,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3169,7 +3175,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3179,14 +3185,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3202,7 +3208,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3212,14 +3218,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3228,14 +3234,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3245,14 +3251,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3261,14 +3267,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3278,14 +3284,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3301,7 +3307,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3311,14 +3317,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3327,31 +3333,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3367,7 +3373,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3377,14 +3383,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3393,14 +3399,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3410,14 +3416,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3426,7 +3432,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3443,14 +3449,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3459,14 +3465,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3476,14 +3482,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3492,14 +3498,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3509,11 +3515,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3532,7 +3538,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3542,11 +3548,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3558,14 +3564,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3575,49 +3581,82 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>222</v>
       </c>
-      <c t="s" r="Q75" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>2681.3150000000001</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>26</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>70</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
         <v>223</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
         <v>224</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>2826.3150000000001</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
         <v>225</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>226</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>227</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3971,10 +4010,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -176,6 +176,21 @@
     <t>142.0000</t>
   </si>
   <si>
+    <t>CAL-MAG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>CELEBORG 200 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -251,90 +266,93 @@
     <t>70.00</t>
   </si>
   <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-90.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:11</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>-90.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>GERDCARE 5 MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -446,6 +464,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>OCTOVENT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -539,6 +566,15 @@
     <t>28.2000</t>
   </si>
   <si>
+    <t>RELAX CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -686,7 +722,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 8:31 PM</t>
+    <t>Sunday, 15 June, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1723,7 +1759,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1766,11 +1802,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1782,7 +1818,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1799,14 +1835,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1822,7 +1858,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1832,14 +1868,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1848,31 +1884,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1881,14 +1917,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1898,14 +1934,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1914,20 +1950,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1938,7 +1974,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1954,7 +1990,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1964,14 +2000,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1980,14 +2016,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1997,14 +2033,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2013,14 +2049,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2030,11 +2066,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2046,14 +2082,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2063,11 +2099,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2079,14 +2115,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2096,14 +2132,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2112,14 +2148,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2129,14 +2165,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2145,14 +2181,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2162,14 +2198,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2178,14 +2214,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2195,14 +2231,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2211,14 +2247,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2228,14 +2264,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2284,7 +2320,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2317,7 +2353,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2334,7 +2370,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2360,14 +2396,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2376,20 +2412,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2397,10 +2433,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2409,14 +2445,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2426,14 +2462,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2449,24 +2485,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2475,7 +2511,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2492,11 +2528,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2508,31 +2544,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2541,14 +2577,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2558,14 +2594,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2574,14 +2610,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2591,14 +2627,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2607,7 +2643,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2624,11 +2660,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2640,14 +2676,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2657,14 +2693,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2673,14 +2709,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2690,11 +2726,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2706,14 +2742,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2723,14 +2759,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2739,14 +2775,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2779,7 +2815,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2789,14 +2825,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2812,7 +2848,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2845,7 +2881,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2855,14 +2891,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2871,14 +2907,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2892,10 +2928,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2904,14 +2940,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2921,14 +2957,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2937,14 +2973,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2954,14 +2990,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2970,7 +3006,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2983,18 +3019,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3003,14 +3039,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3020,11 +3056,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3036,14 +3072,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3053,14 +3089,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3069,31 +3105,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3109,7 +3145,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3119,14 +3155,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3135,14 +3171,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3152,11 +3188,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3168,14 +3204,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3185,11 +3221,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3201,31 +3237,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3234,14 +3270,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3251,14 +3287,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3267,14 +3303,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3284,11 +3320,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3300,14 +3336,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3317,14 +3353,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3333,14 +3369,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3350,11 +3386,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3373,13 +3409,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3387,10 +3423,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3399,28 +3435,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3432,7 +3468,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3445,18 +3481,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>212</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3465,31 +3501,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>195</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3498,31 +3534,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3538,21 +3574,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3564,31 +3600,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3597,7 +3633,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3610,53 +3646,185 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>2826.3150000000001</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>225</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>226</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>80</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>75</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
         <v>227</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>229</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>207</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>75</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>230</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>231</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>232</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>75</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>162</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>234</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>26</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>75</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>235</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3053.3249999999998</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>237</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>238</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>239</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4015,10 +4183,30 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -236,9 +245,6 @@
     <t>1:1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -491,6 +497,9 @@
     <t>19.5000</t>
   </si>
   <si>
+    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -722,7 +731,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 8:33 PM</t>
+    <t>Sunday, 15 June, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1858,24 +1867,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1891,7 +1900,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1905,10 +1914,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1938,10 +1947,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1950,31 +1959,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1983,31 +1992,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2033,11 +2042,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2066,11 +2075,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2082,14 +2091,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2099,14 +2108,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2115,14 +2124,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2132,14 +2141,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2214,14 +2223,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2231,14 +2240,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2264,14 +2273,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2280,14 +2289,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2297,14 +2306,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2346,14 +2355,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2363,14 +2372,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2379,14 +2388,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2396,14 +2405,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2412,7 +2421,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2429,11 +2438,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2445,7 +2454,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2485,24 +2494,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2511,20 +2520,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2532,7 +2541,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2544,31 +2553,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2584,24 +2593,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2627,11 +2636,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2660,14 +2669,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2676,14 +2685,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2693,7 +2702,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2716,7 +2725,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2726,11 +2735,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2775,14 +2784,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2841,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2874,14 +2883,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2891,11 +2900,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2907,14 +2916,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2924,14 +2933,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2940,14 +2949,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2957,11 +2966,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2973,14 +2982,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2990,14 +2999,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3023,14 +3032,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3039,14 +3048,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3056,14 +3065,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3072,14 +3081,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3089,14 +3098,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3105,31 +3114,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3138,14 +3147,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3155,14 +3164,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3171,28 +3180,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3221,11 +3230,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3237,31 +3246,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3303,31 +3312,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3369,14 +3378,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3386,11 +3395,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3402,14 +3411,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3419,11 +3428,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3435,14 +3444,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3452,11 +3461,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3468,14 +3477,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3485,14 +3494,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3518,11 +3527,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3534,7 +3543,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3547,18 +3556,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3567,28 +3576,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3600,7 +3609,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3613,18 +3622,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>224</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3633,31 +3642,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>207</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3666,31 +3675,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3699,31 +3708,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3732,28 +3741,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3765,66 +3774,132 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>234</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>235</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>64</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>165</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>236</v>
       </c>
-      <c t="s" r="Q80" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3053.3249999999998</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>237</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>26</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>64</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
         <v>238</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>239</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3150.3249999999998</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>240</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>241</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>242</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4203,10 +4278,20 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -257,378 +257,390 @@
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-90.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>GERDCARE 5 MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>67.50</t>
+  </si>
+  <si>
+    <t>22.2750</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>LIMITLESS OSTEODENSE TAB</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>MELANOFREE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MONTO SACHET 300 GM</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>6:7</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>OXYPOL EYE OINT. 5 GM</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>39.00</t>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>72.50</t>
+  </si>
+  <si>
+    <t>-14.5000</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>564.00</t>
+  </si>
+  <si>
+    <t>28.2000</t>
+  </si>
+  <si>
+    <t>RELAX CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SODIUM BICARB 1000MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>TOBRADEX EYE OINT. 3.5 GM</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>42.5000</t>
+  </si>
+  <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t>39.0000</t>
   </si>
   <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:11</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>-90.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>GERDCARE 5 MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>67.50</t>
-  </si>
-  <si>
-    <t>22.2750</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:17</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>LIMITLESS OSTEODENSE TAB</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>LOADLESS 5/20MG 30 CAP</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>MELANOFREE CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>MUCO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>1:10</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OCTOVENT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>6:7</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>OXYPOL EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>7.5000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>72.50</t>
-  </si>
-  <si>
-    <t>-14.5000</t>
-  </si>
-  <si>
-    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>39.3600</t>
-  </si>
-  <si>
-    <t>PLEGICA 1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>564.00</t>
-  </si>
-  <si>
-    <t>28.2000</t>
-  </si>
-  <si>
-    <t>RELAX CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SODIUM BICARB 1000MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>TOBRADEX EYE OINT. 3.5 GM</t>
-  </si>
-  <si>
-    <t>42.50</t>
-  </si>
-  <si>
-    <t>42.5000</t>
-  </si>
-  <si>
-    <t>TRITTICO 100MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>21.5000</t>
-  </si>
-  <si>
-    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -650,6 +662,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VITIFECT SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -731,7 +752,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 8:36 PM</t>
+    <t>Sunday, 15 June, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2065,7 +2086,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2075,14 +2096,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2091,7 +2112,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2108,11 +2129,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2124,7 +2145,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2141,11 +2162,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2157,7 +2178,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2174,11 +2195,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2190,7 +2211,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2207,11 +2228,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2223,14 +2244,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2240,14 +2261,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2256,14 +2277,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2273,11 +2294,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2289,14 +2310,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2306,14 +2327,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>109</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2322,7 +2343,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2339,11 +2360,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2355,7 +2376,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2372,11 +2393,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2388,7 +2409,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2405,11 +2426,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2421,7 +2442,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2438,11 +2459,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2454,7 +2475,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2471,11 +2492,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2487,7 +2508,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2508,7 +2529,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>48</v>
@@ -2520,14 +2541,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2537,7 +2558,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2553,7 +2574,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2570,11 +2591,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2586,7 +2607,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2603,11 +2624,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2619,7 +2640,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2636,11 +2657,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2652,14 +2673,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2685,7 +2706,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2702,11 +2723,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2718,7 +2739,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2739,7 +2760,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2751,14 +2772,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2768,11 +2789,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2784,14 +2805,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2801,14 +2822,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2834,14 +2855,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2850,14 +2871,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2867,14 +2888,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2900,14 +2921,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2933,11 +2954,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2949,7 +2970,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2966,11 +2987,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2982,14 +3003,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2999,14 +3020,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3015,14 +3036,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3036,10 +3057,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3048,14 +3069,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3065,14 +3086,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3081,14 +3102,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3105,7 +3126,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>109</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3121,7 +3142,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3131,14 +3152,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3147,14 +3168,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3164,14 +3185,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3180,28 +3201,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3220,24 +3241,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3246,14 +3267,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3270,7 +3291,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3286,7 +3307,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3296,14 +3317,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3312,28 +3333,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3345,31 +3366,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3385,7 +3406,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3402,7 +3423,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3418,7 +3439,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,14 +3449,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3444,14 +3465,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3461,14 +3482,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3477,14 +3498,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3494,14 +3515,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3510,14 +3531,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3534,7 +3555,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3550,7 +3571,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3560,14 +3581,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,14 +3597,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3593,11 +3614,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3609,7 +3630,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3622,18 +3643,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3642,28 +3663,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3675,7 +3696,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3692,14 +3713,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>227</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3708,14 +3729,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3725,14 +3746,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3741,14 +3762,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3758,14 +3779,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3774,14 +3795,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3791,14 +3812,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3807,14 +3828,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3824,11 +3845,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3840,14 +3861,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3857,49 +3878,115 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3150.3249999999998</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>240</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>241</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
         <v>242</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>64</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>167</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>244</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>26</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>64</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>245</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>3409.8249999999998</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>247</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>248</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>249</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4288,10 +4375,20 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -752,7 +752,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 8:37 PM</t>
+    <t>Sunday, 15 June, 2025 8:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -356,6 +356,12 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>GERDCARE 5 MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -608,6 +614,12 @@
     <t>SODIUM BICARB 1000MG 30 CAPS</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -704,6 +716,9 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>حمام كريم فاتيكا 450جم</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -752,7 +767,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 8:46 PM</t>
+    <t>Sunday, 15 June, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2416,7 +2431,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2426,11 +2441,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2442,14 +2457,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2475,7 +2490,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2492,11 +2507,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2508,7 +2523,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2525,14 +2540,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2548,24 +2563,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2574,20 +2589,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2595,7 +2610,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2607,31 +2622,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2647,24 +2662,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2673,14 +2688,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2690,11 +2705,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2706,14 +2721,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2723,14 +2738,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2739,14 +2754,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2756,7 +2771,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2779,7 +2794,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2789,11 +2804,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2805,14 +2820,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2822,11 +2837,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2838,14 +2853,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2855,14 +2870,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2871,14 +2886,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2888,14 +2903,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2904,14 +2919,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2921,14 +2936,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2937,14 +2952,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2954,14 +2969,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2970,14 +2985,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2987,11 +3002,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3003,7 +3018,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3020,11 +3035,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3036,14 +3051,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3053,14 +3068,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3069,14 +3084,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3086,14 +3101,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3102,14 +3117,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3119,14 +3134,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3135,14 +3150,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3152,14 +3167,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>108</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3168,14 +3183,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3185,14 +3200,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3201,14 +3216,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3218,14 +3233,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3234,28 +3249,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3267,31 +3282,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3300,14 +3315,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3317,14 +3332,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3333,14 +3348,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3350,14 +3365,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3366,28 +3381,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3399,31 +3414,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3432,14 +3447,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3449,14 +3464,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3465,14 +3480,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3482,14 +3497,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3498,14 +3513,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3515,11 +3530,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3531,14 +3546,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3548,11 +3563,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3564,14 +3579,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3581,11 +3596,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3597,14 +3612,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3614,14 +3629,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3630,14 +3645,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3647,14 +3662,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3663,14 +3678,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3680,11 +3695,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3696,7 +3711,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3709,18 +3724,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3729,28 +3744,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3762,7 +3777,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3779,14 +3794,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>234</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3795,14 +3810,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3812,14 +3827,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>214</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3828,14 +3843,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3845,11 +3860,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3861,14 +3876,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3878,14 +3893,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3894,14 +3909,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3911,14 +3926,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3927,14 +3942,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3944,49 +3959,148 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>244</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>218</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>64</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>245</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>246</v>
       </c>
-      <c t="s" r="Q84" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>3409.8249999999998</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
         <v>247</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>64</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>169</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>248</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>249</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>26</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>64</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>250</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>3525.5149999999999</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>252</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>253</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>254</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4385,10 +4499,25 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -446,15 +446,6 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>MONTO SACHET 300 GM</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
     <t>MUCO 15MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -767,7 +758,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 8:48 PM</t>
+    <t>Sunday, 15 June, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2827,7 +2818,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2837,11 +2828,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2853,14 +2844,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2870,14 +2861,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2886,14 +2877,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2903,14 +2894,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2919,14 +2910,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2943,7 +2934,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2959,7 +2950,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2976,7 +2967,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2992,7 +2983,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3035,11 +3026,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3051,14 +3042,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3068,14 +3059,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3105,10 +3096,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3117,14 +3108,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3134,14 +3125,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3150,14 +3141,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3174,7 +3165,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>48</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3190,7 +3181,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3200,14 +3191,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3216,14 +3207,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3233,14 +3224,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3249,28 +3240,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3289,24 +3280,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3315,14 +3306,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3339,7 +3330,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3355,7 +3346,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3365,14 +3356,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3381,28 +3372,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3414,28 +3405,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3447,14 +3438,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3464,14 +3455,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3487,7 +3478,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3504,7 +3495,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3520,7 +3511,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3530,14 +3521,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3546,14 +3537,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3563,14 +3554,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3586,7 +3577,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3596,14 +3587,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3619,7 +3610,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3629,14 +3620,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3645,14 +3636,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3695,14 +3686,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3711,14 +3702,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3728,14 +3719,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3751,13 +3742,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3765,10 +3756,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3777,14 +3768,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3798,10 +3789,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3810,14 +3801,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3827,11 +3818,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3843,7 +3834,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3860,14 +3851,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3876,7 +3867,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3893,14 +3884,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3909,14 +3900,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3926,14 +3917,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>218</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3949,7 +3940,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3963,7 +3954,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3975,14 +3966,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3992,11 +3983,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4015,7 +4006,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4025,7 +4016,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4036,71 +4027,38 @@
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="A87" s="7">
-        <v>81</v>
-      </c>
-      <c r="B87" s="7"/>
-      <c t="s" r="C87" s="8">
+      <c r="P87" s="13">
+        <v>3327.5149999999999</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
         <v>249</v>
       </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c t="s" r="H87" s="9">
-        <v>26</v>
-      </c>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c t="s" r="L87" s="10">
-        <v>64</v>
-      </c>
-      <c r="M87" s="10"/>
-      <c t="s" r="N87" s="8">
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
         <v>250</v>
       </c>
-      <c r="O87" s="8"/>
-      <c t="s" r="P87" s="11">
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
         <v>251</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>3525.5149999999999</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>252</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>253</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>254</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4509,15 +4467,10 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
@@ -389,12 +398,30 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>IROLAMIN 30 CAPS.</t>
   </si>
   <si>
     <t>59.4000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -512,6 +539,15 @@
     <t>40.00</t>
   </si>
   <si>
+    <t>OTOCORT EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>OXYPOL EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -536,6 +572,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PHYTO K 10 MG 50 F.C.TAB.</t>
   </si>
   <si>
@@ -560,6 +605,15 @@
     <t>PLEGICA 1% EYE DROPS 10 ML</t>
   </si>
   <si>
+    <t>POM SHOWER GEL 250 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -620,6 +674,15 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>TAVACIN 750MG 5 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>TOBRADEX EYE OINT. 3.5 GM</t>
   </si>
   <si>
@@ -659,12 +722,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VITIFECT SYRUP 120 ML</t>
   </si>
   <si>
@@ -680,6 +737,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>XITHRONE 500MG 5 F.C.TAB.</t>
   </si>
   <si>
@@ -689,6 +755,12 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -758,7 +830,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 8:54 PM</t>
+    <t>Sunday, 15 June, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2389,7 +2461,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2406,7 +2478,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2422,7 +2494,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2432,14 +2504,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2448,14 +2520,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2465,7 +2537,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2488,7 +2560,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2505,7 +2577,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2564,14 +2636,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2580,20 +2652,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2601,10 +2673,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2613,14 +2685,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2630,14 +2702,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2653,21 +2725,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2679,28 +2751,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2712,14 +2784,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2729,11 +2801,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2745,20 +2817,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2766,7 +2838,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2778,7 +2850,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2795,14 +2867,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2811,14 +2883,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2828,14 +2900,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2844,14 +2916,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2861,14 +2933,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,14 +2949,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2894,7 +2966,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2917,7 +2989,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2927,14 +2999,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2943,14 +3015,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2960,14 +3032,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2976,14 +3048,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3016,7 +3088,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3026,14 +3098,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3042,14 +3114,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3059,14 +3131,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3075,14 +3147,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3092,11 +3164,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3108,14 +3180,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3125,14 +3197,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3141,14 +3213,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3158,14 +3230,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>108</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3174,14 +3246,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3191,14 +3263,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3207,14 +3279,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3224,11 +3296,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3247,24 +3319,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3273,14 +3345,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3313,7 +3385,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3330,7 +3402,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3379,24 +3451,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3412,7 +3484,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3422,14 +3494,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,31 +3510,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3471,14 +3543,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3488,14 +3560,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3504,14 +3576,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,14 +3593,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,14 +3609,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3554,14 +3626,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3570,28 +3642,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3603,14 +3675,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3620,14 +3692,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3643,7 +3715,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3660,7 +3732,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3686,14 +3758,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3702,14 +3774,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3719,11 +3791,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3735,31 +3807,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3768,24 +3840,24 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3808,24 +3880,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3834,31 +3906,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>236</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3880,18 +3952,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>215</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3900,31 +3972,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>94</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3933,28 +4005,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3966,28 +4038,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -3999,66 +4071,363 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>3327.5149999999999</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>249</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>250</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>26</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>64</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
         <v>251</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>252</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>253</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>64</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>254</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>256</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>26</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>64</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>30</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>257</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>26</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>64</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>258</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>261</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>26</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>64</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>251</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>262</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>180</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>64</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>263</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>265</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>236</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>64</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>266</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>267</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>268</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>64</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>175</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>270</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>26</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>64</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>271</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>3854.5149999999999</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>273</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>274</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>275</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4467,10 +4836,55 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 8:58 PM</t>
+    <t>Sunday, 15 June, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -446,6 +446,15 @@
     <t>145.0000</t>
   </si>
   <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>LOADLESS 5/20MG 30 CAP</t>
   </si>
   <si>
@@ -830,7 +839,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 8:59 PM</t>
+    <t>Sunday, 15 June, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2857,7 +2866,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2874,7 +2883,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2890,7 +2899,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2900,11 +2909,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2916,14 +2925,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2933,14 +2942,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2956,7 +2965,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2966,11 +2975,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2999,11 +3008,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3015,14 +3024,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3032,14 +3041,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3048,14 +3057,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3065,14 +3074,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3081,14 +3090,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3105,7 +3114,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3121,7 +3130,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3138,7 +3147,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3154,7 +3163,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3197,11 +3206,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3213,14 +3222,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3230,14 +3239,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3253,7 +3262,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3263,14 +3272,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3286,7 +3295,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3296,11 +3305,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3329,14 +3338,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3345,14 +3354,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3369,7 +3378,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3385,7 +3394,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3402,7 +3411,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3418,7 +3427,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,14 +3437,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3444,14 +3453,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3461,14 +3470,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3477,7 +3486,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3494,11 +3503,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3517,13 +3526,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3550,24 +3559,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3600,7 +3609,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3616,7 +3625,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3642,28 +3651,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3675,28 +3684,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3708,14 +3717,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3748,7 +3757,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3765,7 +3774,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3781,7 +3790,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3814,7 +3823,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3824,14 +3833,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3880,7 +3889,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3913,7 +3922,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3923,14 +3932,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,11 +3965,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>94</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4005,7 +4014,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4022,14 +4031,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4045,7 +4054,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4078,7 +4087,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4088,14 +4097,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,31 +4113,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4158,10 +4167,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4187,11 +4196,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4203,7 +4212,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4220,14 +4229,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>260</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4236,7 +4245,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4253,14 +4262,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>236</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4309,7 +4318,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4323,7 +4332,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4335,14 +4344,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4352,11 +4361,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4375,7 +4384,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,7 +4394,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4396,38 +4405,71 @@
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>3854.5149999999999</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>273</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>26</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>64</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
         <v>274</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>275</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4094.5149999999999</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>276</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>277</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>278</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4881,10 +4923,15 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -272,6 +272,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>ECOTO 20 PIECES</t>
   </si>
   <si>
@@ -290,6 +299,9 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -365,6 +377,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -602,9 +626,6 @@
     <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>246.00</t>
   </si>
   <si>
@@ -668,6 +689,15 @@
     <t>SODIUM BICARB 1000MG 30 CAPS</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -839,7 +869,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 9:00 PM</t>
+    <t>Sunday, 15 June, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2239,7 +2269,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2272,7 +2302,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2289,7 +2319,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2305,7 +2335,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2322,7 +2352,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2338,7 +2368,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2348,14 +2378,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2364,14 +2394,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2381,14 +2411,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2397,14 +2427,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2414,14 +2444,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2430,14 +2460,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2447,14 +2477,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2463,14 +2493,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2480,14 +2510,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2496,14 +2526,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2513,14 +2543,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2529,14 +2559,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2546,11 +2576,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2562,14 +2592,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2579,14 +2609,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2595,14 +2625,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2619,7 +2649,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2635,7 +2665,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2645,14 +2675,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2661,14 +2691,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2678,14 +2708,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2694,7 +2724,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2711,14 +2741,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2734,7 +2764,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2767,24 +2797,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2800,7 +2830,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2810,14 +2840,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2826,24 +2856,24 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2866,24 +2896,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2932,24 +2962,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2958,14 +2988,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2975,11 +3005,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2991,7 +3021,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3008,14 +3038,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3024,14 +3054,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3041,14 +3071,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3057,14 +3087,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3074,14 +3104,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3090,14 +3120,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3107,11 +3137,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3123,14 +3153,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3140,14 +3170,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3156,14 +3186,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3173,14 +3203,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3189,14 +3219,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3206,11 +3236,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3222,14 +3252,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3239,14 +3269,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3255,14 +3285,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3276,10 +3306,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3288,14 +3318,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3305,11 +3335,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3321,14 +3351,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3338,11 +3368,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3354,14 +3384,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3371,14 +3401,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3387,14 +3417,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3404,14 +3434,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3420,14 +3450,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3437,14 +3467,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3453,14 +3483,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3470,14 +3500,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3486,14 +3516,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3503,14 +3533,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3526,7 +3556,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3543,7 +3573,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3559,13 +3589,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3576,7 +3606,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3592,7 +3622,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3602,14 +3632,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3618,7 +3648,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3635,11 +3665,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3651,31 +3681,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3684,28 +3714,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3717,14 +3747,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3734,14 +3764,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3757,7 +3787,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3767,14 +3797,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3783,31 +3813,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3816,7 +3846,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3833,14 +3863,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3849,14 +3879,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3866,11 +3896,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3882,14 +3912,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3899,14 +3929,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3915,14 +3945,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3932,14 +3962,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3948,14 +3978,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3965,11 +3995,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3988,7 +4018,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3998,14 +4028,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4014,14 +4044,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4031,14 +4061,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4054,7 +4084,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4071,7 +4101,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4087,7 +4117,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4097,11 +4127,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4113,14 +4143,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4130,14 +4160,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4159,18 +4189,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4186,21 +4216,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4212,28 +4242,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4245,31 +4275,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>263</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4278,7 +4308,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4295,14 +4325,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>239</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4318,7 +4348,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4328,11 +4358,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4344,14 +4374,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4361,11 +4391,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>30</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4384,7 +4414,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4394,14 +4424,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4410,7 +4440,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4427,49 +4457,181 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>275</v>
       </c>
-      <c t="s" r="Q96" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4094.5149999999999</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>191</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>64</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
         <v>276</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>277</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>278</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>249</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>64</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>279</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>280</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>281</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>64</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>186</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>283</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>26</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>64</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>284</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4285.9750000000004</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>286</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>287</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>288</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4928,10 +5090,30 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -227,351 +227,354 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
     <t>35.6400</t>
   </si>
   <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-90.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GERDCARE 5 MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>67.50</t>
+  </si>
+  <si>
+    <t>22.2750</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>LIMITLESS OSTEODENSE TAB</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>MELANOFREE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>6:7</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:11</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>-90.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>FLACORT 30MG 20 TAB</t>
-  </si>
-  <si>
-    <t>164.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GERDCARE 5 MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>67.50</t>
-  </si>
-  <si>
-    <t>22.2750</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:17</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>LIMITLESS OSTEODENSE TAB</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>LOADLESS 5/20MG 30 CAP</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>MELANOFREE CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>MUCO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>1:10</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OCTOVENT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>6:7</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>OTOCORT EAR DROPS 10 ML</t>
   </si>
   <si>
@@ -836,6 +839,12 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>شامبو صانسيلك صغير 180ملل</t>
   </si>
   <si>
@@ -869,7 +878,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 9:05 PM</t>
+    <t>Sunday, 15 June, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2137,7 +2146,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2147,11 +2156,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2163,7 +2172,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2196,7 +2205,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2213,11 +2222,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>39</v>
@@ -2229,14 +2238,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2246,11 +2255,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2262,7 +2271,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2279,11 +2288,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2295,7 +2304,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2312,11 +2321,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2328,7 +2337,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2345,11 +2354,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2361,7 +2370,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2378,11 +2387,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2394,7 +2403,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2411,11 +2420,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2427,14 +2436,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2444,11 +2453,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>103</v>
@@ -3071,11 +3080,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3408,7 +3417,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>75</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3417,7 +3426,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3434,11 +3443,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3467,11 +3476,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3500,11 +3509,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>48</v>
@@ -3516,14 +3525,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3533,11 +3542,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3549,7 +3558,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3566,11 +3575,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>112</v>
@@ -3582,7 +3591,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3599,11 +3608,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3615,7 +3624,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3648,7 +3657,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3665,11 +3674,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3681,7 +3690,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3698,11 +3707,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3714,14 +3723,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3731,11 +3740,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3747,7 +3756,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3764,11 +3773,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3797,11 +3806,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3813,7 +3822,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3846,7 +3855,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3863,11 +3872,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3879,7 +3888,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3896,11 +3905,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3912,7 +3921,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3929,11 +3938,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -3945,7 +3954,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3962,11 +3971,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3978,7 +3987,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3995,11 +4004,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4011,7 +4020,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4032,7 +4041,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4044,14 +4053,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,11 +4070,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4077,7 +4086,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4094,11 +4103,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4127,11 +4136,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4143,7 +4152,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4160,11 +4169,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4176,7 +4185,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4193,11 +4202,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>48</v>
@@ -4209,7 +4218,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4226,11 +4235,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4242,7 +4251,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4259,11 +4268,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4275,7 +4284,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4292,11 +4301,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4308,7 +4317,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4325,7 +4334,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4341,14 +4350,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4358,11 +4367,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4374,7 +4383,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4407,7 +4416,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4424,14 +4433,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4440,7 +4449,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4457,14 +4466,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4473,14 +4482,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4490,7 +4499,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4513,7 +4522,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4527,7 +4536,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4539,14 +4548,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4556,11 +4565,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4579,7 +4588,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4589,7 +4598,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4600,38 +4609,71 @@
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4285.9750000000004</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>286</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>26</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>64</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
         <v>287</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>288</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>4300.8549999999996</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>289</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>290</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>291</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5110,10 +5152,15 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -299,6 +311,18 @@
     <t>ESMORAP 40MG 14 CAPS</t>
   </si>
   <si>
+    <t>EUCARBON 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -380,9 +404,6 @@
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>84.00</t>
   </si>
   <si>
@@ -518,9 +539,6 @@
     <t>156.00</t>
   </si>
   <si>
-    <t>12.4800</t>
-  </si>
-  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -695,9 +713,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -830,10 +845,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>17:0</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -878,7 +893,13 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 9:07 PM</t>
+    <t>كريم فيم 90 جم</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>Sunday, 15 June, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1635,7 +1656,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1651,7 +1672,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1661,11 +1682,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1677,14 +1698,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1694,11 +1715,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1710,14 +1731,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1727,11 +1748,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1743,14 +1764,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1767,7 +1788,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1783,7 +1804,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1793,11 +1814,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1809,14 +1830,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1826,14 +1847,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1849,7 +1870,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1866,7 +1887,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1875,14 +1896,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1892,11 +1913,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1908,14 +1929,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1925,14 +1946,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1941,14 +1962,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1958,11 +1979,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1974,14 +1995,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1991,11 +2012,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -2007,20 +2028,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2028,10 +2049,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2040,31 +2061,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2073,14 +2094,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2090,14 +2111,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2106,14 +2127,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2123,14 +2144,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2139,20 +2160,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2163,7 +2184,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2172,31 +2193,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2205,14 +2226,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2222,14 +2243,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2238,14 +2259,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2255,14 +2276,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2271,14 +2292,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2288,14 +2309,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2304,14 +2325,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2321,11 +2342,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2337,14 +2358,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2354,14 +2375,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2370,14 +2391,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2387,14 +2408,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2403,14 +2424,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2420,11 +2441,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2436,14 +2457,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2453,14 +2474,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2476,7 +2497,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2486,14 +2507,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2502,14 +2523,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2519,14 +2540,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>111</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>112</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2535,14 +2556,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2559,7 +2580,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2575,7 +2596,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2585,14 +2606,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2601,14 +2622,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2618,14 +2639,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2634,14 +2655,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2651,11 +2672,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2667,14 +2688,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2684,14 +2705,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2700,14 +2721,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2717,11 +2738,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2733,14 +2754,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2750,14 +2771,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2766,14 +2787,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2783,14 +2804,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2799,14 +2820,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2816,11 +2837,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2832,14 +2853,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2849,14 +2870,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2865,14 +2886,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2882,11 +2903,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2898,31 +2919,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2931,14 +2952,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2948,14 +2969,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2964,31 +2985,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2997,14 +3018,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3014,14 +3035,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3030,31 +3051,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3063,14 +3084,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3080,14 +3101,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3096,14 +3117,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3113,14 +3134,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3129,14 +3150,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3146,14 +3167,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3162,14 +3183,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3179,11 +3200,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3195,14 +3216,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3212,14 +3233,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3228,14 +3249,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3245,11 +3266,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3261,14 +3282,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3282,7 +3303,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3294,14 +3315,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3334,7 +3355,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3351,7 +3372,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3367,7 +3388,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3377,11 +3398,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3393,14 +3414,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3410,14 +3431,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>187</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3426,14 +3447,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3443,11 +3464,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3459,14 +3480,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3476,14 +3497,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3492,14 +3513,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3509,14 +3530,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3525,14 +3546,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3542,14 +3563,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3558,14 +3579,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3582,7 +3603,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>112</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3598,7 +3619,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3631,7 +3652,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3641,14 +3662,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3657,14 +3678,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3674,14 +3695,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3690,28 +3711,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3730,7 +3751,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3740,14 +3761,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3756,28 +3777,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3789,14 +3810,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3806,11 +3827,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3822,31 +3843,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3855,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3872,11 +3893,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3888,28 +3909,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3921,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3938,14 +3959,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3971,14 +3992,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3987,14 +4008,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4004,14 +4025,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4020,14 +4041,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4037,14 +4058,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4060,7 +4081,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4070,7 +4091,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4093,7 +4114,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4103,11 +4124,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4119,14 +4140,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4136,11 +4157,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4159,7 +4180,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4176,7 +4197,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4192,7 +4213,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4202,14 +4223,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4225,7 +4246,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4258,7 +4279,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4268,14 +4289,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4284,14 +4305,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4301,14 +4322,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4324,13 +4345,13 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4338,10 +4359,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4350,31 +4371,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4383,31 +4404,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4423,24 +4444,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>274</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4456,24 +4477,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>250</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4489,24 +4510,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4515,31 +4536,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4555,21 +4576,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>68</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4588,17 +4609,17 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4621,13 +4642,13 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4635,45 +4656,144 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>288</v>
       </c>
-      <c t="s" r="Q101" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>4300.8549999999996</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
         <v>289</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>68</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>192</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>290</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>291</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>30</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>68</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>292</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>294</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>17</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>68</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>295</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>4399.9849999999997</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>296</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>297</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>298</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5157,10 +5277,25 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -89,636 +89,645 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>BEGONIA SHAMPOO 150 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BON-ONE 0.25 MCG 30 TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
+    <t>CAL-MAG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>CELEBORG 200 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>EUCARBON 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-90.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GERDCARE 5 MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>67.50</t>
+  </si>
+  <si>
+    <t>22.2750</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>LIMITLESS OSTEODENSE TAB</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>MELANOFREE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 40MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>6:7</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>OTOCORT EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>OXYPOL EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>72.50</t>
+  </si>
+  <si>
+    <t>-14.5000</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>POM SHOWER GEL 250 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>564.00</t>
+  </si>
+  <si>
+    <t>28.2000</t>
+  </si>
+  <si>
+    <t>RELAX CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SODIUM BICARB 1000MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>BEGONIA SHAMPOO 150 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>BETOLVEX 1MG/ML 2 AMP</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BON-ONE 0.25 MCG 30 TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>65.3400</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
-  </si>
-  <si>
-    <t>142.00</t>
-  </si>
-  <si>
-    <t>142.0000</t>
-  </si>
-  <si>
-    <t>CAL-MAG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>CELEBORG 200 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>EUCARBON 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:11</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>-90.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>FLACORT 30MG 20 TAB</t>
-  </si>
-  <si>
-    <t>164.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GERDCARE 5 MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>67.50</t>
-  </si>
-  <si>
-    <t>22.2750</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:17</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>LIMITLESS OSTEODENSE TAB</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>LOADLESS 5/20MG 30 CAP</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>MELANOFREE CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>MUCO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>1:10</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OCTOVENT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>6:7</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>OTOCORT EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>OXYPOL EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>7.5000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>72.50</t>
-  </si>
-  <si>
-    <t>-14.5000</t>
-  </si>
-  <si>
-    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>39.3600</t>
-  </si>
-  <si>
-    <t>PLEGICA 1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>POM SHOWER GEL 250 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>564.00</t>
-  </si>
-  <si>
-    <t>28.2000</t>
-  </si>
-  <si>
-    <t>RELAX CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SODIUM BICARB 1000MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
     <t>12.8700</t>
   </si>
   <si>
@@ -866,15 +875,24 @@
     <t>65.00</t>
   </si>
   <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
     <t>55.00</t>
   </si>
   <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>فازلين بيور كبير</t>
   </si>
   <si>
@@ -887,19 +905,13 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>كريم فيم 90 جم</t>
   </si>
   <si>
     <t>50.00</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 9:10 PM</t>
+    <t>Sunday, 15 June, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1656,7 +1668,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1665,14 +1677,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1682,11 +1694,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1698,14 +1710,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1715,11 +1727,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1731,7 +1743,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1748,11 +1760,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1764,7 +1776,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1781,11 +1793,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1797,14 +1809,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1814,11 +1826,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1830,14 +1842,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1847,11 +1859,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1863,7 +1875,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1880,14 +1892,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1903,7 +1915,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1936,7 +1948,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1969,7 +1981,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2012,7 +2024,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -2035,7 +2047,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2068,7 +2080,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2134,7 +2146,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2148,7 +2160,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2247,7 +2259,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2266,7 +2278,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2283,7 +2295,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2497,7 +2509,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2695,7 +2707,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2771,7 +2783,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2827,7 +2839,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2860,7 +2872,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2926,7 +2938,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2936,14 +2948,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2959,7 +2971,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3058,7 +3070,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3091,7 +3103,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3190,7 +3202,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3256,7 +3268,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3388,7 +3400,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3421,7 +3433,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3438,7 +3450,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3454,7 +3466,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3464,11 +3476,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3480,14 +3492,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3497,14 +3509,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>193</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3513,14 +3525,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3534,10 +3546,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>196</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3553,7 +3565,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3563,11 +3575,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3579,14 +3591,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3596,14 +3608,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3612,14 +3624,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3629,14 +3641,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3645,14 +3657,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3662,14 +3674,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3678,14 +3690,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3695,14 +3707,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3711,14 +3723,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3728,14 +3740,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3744,14 +3756,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3761,11 +3773,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3777,28 +3789,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3810,31 +3822,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3843,14 +3855,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,14 +3872,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3876,14 +3888,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3893,14 +3905,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3909,28 +3921,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3942,28 +3954,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3982,7 +3994,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,7 +4004,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4015,7 +4027,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4025,14 +4037,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>85</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4048,7 +4060,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4065,7 +4077,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4081,7 +4093,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4114,7 +4126,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4136,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4140,14 +4152,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,14 +4169,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4180,7 +4192,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4190,14 +4202,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4213,7 +4225,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4223,14 +4235,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4239,14 +4251,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4256,11 +4268,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4279,7 +4291,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4289,14 +4301,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>105</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4305,14 +4317,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4322,14 +4334,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>105</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4345,7 +4357,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4378,7 +4390,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4388,14 +4400,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4404,31 +4416,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>66</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4437,14 +4449,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4458,10 +4470,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4470,14 +4482,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4487,11 +4499,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4503,14 +4515,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4520,14 +4532,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>35</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>279</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4536,14 +4548,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4553,14 +4565,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>255</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4569,14 +4581,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4586,14 +4598,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4602,14 +4614,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4619,7 +4631,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4642,7 +4654,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4656,7 +4668,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4675,7 +4687,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4685,11 +4697,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4701,14 +4713,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>30</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4741,7 +4753,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4751,49 +4763,115 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>4399.9849999999997</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>296</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>297</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>31</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>68</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>292</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>298</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>17</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>68</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>299</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>4510.6750000000002</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>300</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>301</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>302</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5292,10 +5370,20 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -758,6 +758,12 @@
     <t>42.5000</t>
   </si>
   <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>TRITTICO 100MG 20 TAB.</t>
   </si>
   <si>
@@ -911,7 +917,7 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 9:16 PM</t>
+    <t>Sunday, 15 June, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4159,7 +4165,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4169,14 +4175,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4192,7 +4198,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4202,14 +4208,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4218,14 +4224,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,14 +4241,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4251,14 +4257,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4268,14 +4274,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4291,7 +4297,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4301,11 +4307,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4317,7 +4323,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4334,14 +4340,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4367,14 +4373,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>105</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4383,14 +4389,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4400,11 +4406,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4416,14 +4422,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4433,14 +4439,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4456,24 +4462,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>66</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4489,7 +4495,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4499,14 +4505,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4515,14 +4521,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4532,11 +4538,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4548,7 +4554,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4565,14 +4571,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>282</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4581,7 +4587,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4598,14 +4604,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>258</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4614,7 +4620,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4631,14 +4637,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4654,7 +4660,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4664,11 +4670,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4687,7 +4693,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4701,7 +4707,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4720,7 +4726,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4730,11 +4736,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4746,14 +4752,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4763,11 +4769,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4779,14 +4785,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>31</v>
+        <v>297</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4796,11 +4802,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>195</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4812,14 +4818,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4829,49 +4835,82 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>4510.6750000000002</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>300</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>17</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>68</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>301</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>4640.6750000000002</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
         <v>302</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>303</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>304</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5380,10 +5419,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -44,12 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACECZEMA CREAM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ACRETIN 0.05% CREAM 30 GM</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -104,9 +119,6 @@
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>124.00</t>
   </si>
   <si>
@@ -215,9 +227,6 @@
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -917,7 +926,7 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 9:23 PM</t>
+    <t>Sunday, 15 June, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1575,7 +1584,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1584,31 +1593,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1630,7 +1639,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1641,7 +1650,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1650,31 +1659,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1696,7 +1705,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1707,7 +1716,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1716,31 +1725,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1749,7 +1758,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1762,18 +1771,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1782,31 +1791,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1815,20 +1824,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1839,7 +1848,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1855,24 +1864,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1881,31 +1890,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1914,31 +1923,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1947,31 +1956,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1980,31 +1989,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2013,31 +2022,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2046,31 +2055,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2079,20 +2088,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2100,10 +2109,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2152,13 +2161,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2166,10 +2175,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2178,20 +2187,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2199,10 +2208,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2211,7 +2220,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2224,18 +2233,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2251,7 +2260,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2277,31 +2286,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2317,13 +2326,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2334,7 +2343,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2350,13 +2359,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2367,7 +2376,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2383,13 +2392,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2400,7 +2409,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2416,13 +2425,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2433,7 +2442,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2449,24 +2458,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2475,31 +2484,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2508,20 +2517,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2532,7 +2541,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2548,24 +2557,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>111</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2574,31 +2583,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2607,31 +2616,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2640,31 +2649,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2680,13 +2689,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2697,7 +2706,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2713,13 +2722,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2730,7 +2739,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2746,13 +2755,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2763,7 +2772,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2779,24 +2788,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2805,31 +2814,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2845,13 +2854,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2862,7 +2871,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2878,13 +2887,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2895,7 +2904,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2917,7 +2926,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2928,7 +2937,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2944,24 +2953,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2970,31 +2979,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3010,24 +3019,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3043,7 +3052,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3076,24 +3085,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3102,14 +3111,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3119,14 +3128,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3148,7 +3157,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3159,7 +3168,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3175,24 +3184,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3201,31 +3210,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3241,24 +3250,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3267,31 +3276,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3300,31 +3309,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3346,7 +3355,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3354,10 +3363,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3366,20 +3375,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3390,7 +3399,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3406,13 +3415,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3423,7 +3432,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3439,13 +3448,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3456,7 +3465,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3472,13 +3481,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3489,7 +3498,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3505,24 +3514,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3531,31 +3540,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3564,20 +3573,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3585,10 +3594,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>199</v>
-      </c>
-      <c t="s" r="Q68" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3604,13 +3613,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3621,7 +3630,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3637,24 +3646,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3663,20 +3672,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3687,7 +3696,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3703,13 +3712,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3720,7 +3729,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3736,13 +3745,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3753,7 +3762,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3769,24 +3778,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3795,31 +3804,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3841,7 +3850,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3852,7 +3861,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3868,7 +3877,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3878,14 +3887,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3894,20 +3903,20 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3918,7 +3927,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3934,24 +3943,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3960,31 +3969,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>49</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3993,14 +4002,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4010,14 +4019,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4026,31 +4035,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4066,24 +4075,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4099,13 +4108,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4132,13 +4141,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4149,7 +4158,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4165,24 +4174,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4191,31 +4200,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4224,31 +4233,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4264,24 +4273,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>88</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4297,24 +4306,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4323,31 +4332,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4363,24 +4372,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4389,31 +4398,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>108</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4435,7 +4444,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4446,7 +4455,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4462,24 +4471,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4488,31 +4497,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4521,20 +4530,20 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4542,10 +4551,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4554,31 +4563,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>35</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>36</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4587,31 +4596,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>39</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>284</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4620,31 +4629,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>260</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4653,31 +4662,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,31 +4695,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>188</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4719,31 +4728,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4752,20 +4761,20 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4773,10 +4782,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4785,31 +4794,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4825,24 +4834,24 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>31</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>198</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4851,66 +4860,99 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>4640.6750000000002</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>302</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>303</v>
       </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>22</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>13</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
         <v>304</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>4673.6750000000002</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>305</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>306</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>307</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5424,10 +5466,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -239,6 +239,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -248,21 +254,24 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>6:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>47.5200</t>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -323,9 +332,6 @@
     <t>EUCARBON 30 TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>105.00</t>
   </si>
   <si>
@@ -398,7 +404,7 @@
     <t>144.00</t>
   </si>
   <si>
-    <t>72.0000</t>
+    <t>144.0000</t>
   </si>
   <si>
     <t>FUSI 2% CREAM 15 GM</t>
@@ -425,6 +431,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>GERDCARE 5 MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -464,9 +479,6 @@
     <t>IROLAMIN 30 CAPS.</t>
   </si>
   <si>
-    <t>59.4000</t>
-  </si>
-  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -485,6 +497,9 @@
     <t>300.00</t>
   </si>
   <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -689,6 +704,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -728,9 +752,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -758,6 +779,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>TOBRADEX EYE OINT. 3.5 GM</t>
   </si>
   <si>
@@ -839,94 +869,97 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حجر </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>حمام كريم فاتيكا 450جم</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>شامبو صانسيلك صغير 180ملل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم فيم 90 جم</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حجر </t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>حمام كريم فاتيكا 450جم</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>شامبو صانسيلك صغير 180ملل</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فازلين بيور صغير </t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>فازلين بيور كبير</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم فيم 90 جم</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>Sunday, 15 June, 2025 9:24 PM</t>
+    <t>Sunday, 15 June, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2194,7 +2227,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2204,14 +2237,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2227,7 +2260,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2237,14 +2270,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2253,31 +2286,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2286,31 +2319,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2319,14 +2352,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2336,14 +2369,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2359,7 +2392,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2376,7 +2409,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2392,7 +2425,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2409,7 +2442,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2425,7 +2458,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2458,7 +2491,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2475,7 +2508,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2491,7 +2524,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2501,14 +2534,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2517,14 +2550,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2534,11 +2567,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2550,14 +2583,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2567,11 +2600,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2583,14 +2616,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2600,14 +2633,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>114</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2616,14 +2649,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2633,14 +2666,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2649,14 +2682,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2666,14 +2699,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2682,14 +2715,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2699,14 +2732,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2715,7 +2748,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2732,11 +2765,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2748,14 +2781,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2765,11 +2798,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2781,14 +2814,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2798,14 +2831,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2814,14 +2847,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2831,7 +2864,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2854,7 +2887,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2864,11 +2897,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2880,7 +2913,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2897,11 +2930,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2913,14 +2946,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2930,14 +2963,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2946,14 +2979,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2963,11 +2996,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2979,7 +3012,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2996,14 +3029,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3019,7 +3052,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3052,24 +3085,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3078,14 +3111,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3095,14 +3128,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3111,14 +3144,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3128,14 +3161,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3144,7 +3177,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3161,11 +3194,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3177,7 +3210,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3194,11 +3227,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3210,31 +3243,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3243,14 +3276,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3260,11 +3293,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3276,7 +3309,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3293,14 +3326,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3309,14 +3342,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3326,14 +3359,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3342,14 +3375,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3359,14 +3392,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3375,14 +3408,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3392,11 +3425,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3408,14 +3441,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3425,14 +3458,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3441,14 +3474,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3458,14 +3491,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3474,14 +3507,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3491,14 +3524,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3507,14 +3540,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3524,14 +3557,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3540,14 +3573,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3557,11 +3590,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3573,14 +3606,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3590,14 +3623,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>199</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3606,14 +3639,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3623,11 +3656,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3639,14 +3672,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3656,11 +3689,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3672,14 +3705,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3689,14 +3722,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3705,14 +3738,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3722,14 +3755,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3738,14 +3771,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3755,14 +3788,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3771,14 +3804,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3788,14 +3821,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3804,14 +3837,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3821,14 +3854,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3837,14 +3870,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3854,14 +3887,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3870,31 +3903,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3903,14 +3936,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3920,14 +3953,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3936,7 +3969,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3953,11 +3986,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3969,31 +4002,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4002,7 +4035,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4015,15 +4048,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>53</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -4035,14 +4068,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4052,11 +4085,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4068,14 +4101,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4085,14 +4118,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4101,14 +4134,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4118,14 +4151,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4134,31 +4167,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4167,7 +4200,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4184,14 +4217,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4200,14 +4233,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4217,14 +4250,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4233,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4250,14 +4283,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4266,14 +4299,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4283,11 +4316,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4299,14 +4332,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4316,14 +4349,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4332,14 +4365,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>48</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4349,11 +4382,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4365,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4382,11 +4415,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4398,14 +4431,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4415,14 +4448,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4431,14 +4464,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4448,11 +4481,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>91</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4464,7 +4497,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4481,14 +4514,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4497,14 +4530,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4514,14 +4547,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4530,7 +4563,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4543,18 +4576,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>70</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4563,31 +4596,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>110</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4596,7 +4629,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4609,15 +4642,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4629,31 +4662,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>287</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4662,7 +4695,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4675,18 +4708,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>263</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4695,7 +4728,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4712,14 +4745,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4728,14 +4761,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4745,11 +4778,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4761,14 +4794,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4778,11 +4811,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4794,14 +4827,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4811,14 +4844,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4827,14 +4860,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4844,14 +4877,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>198</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4860,7 +4893,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4877,11 +4910,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4893,14 +4926,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4910,49 +4943,214 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>276</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>4673.6750000000002</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>304</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>273</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>13</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
         <v>305</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>306</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
         <v>307</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>13</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>308</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>310</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>299</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>13</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>203</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>312</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>12</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>13</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>308</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>313</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>22</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>13</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>314</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5200.6149999999998</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>316</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>317</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>318</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5471,10 +5669,35 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -656,6 +656,9 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 24 F.C. TAB</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -959,7 +962,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 9:36 PM</t>
+    <t>Sunday, 15 June, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3844,7 +3847,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,11 +3857,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3870,14 +3873,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3887,14 +3890,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>125</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3903,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3920,14 +3923,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,14 +3939,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,14 +3956,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3986,11 +3989,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4002,28 +4005,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4035,31 +4038,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4068,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4085,11 +4088,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4101,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,14 +4121,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4134,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4151,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4167,28 +4170,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>53</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4207,21 +4210,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4240,7 +4243,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,11 +4253,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4266,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>122</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,14 +4286,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4299,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,14 +4319,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4332,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4349,11 +4352,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4365,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4382,11 +4385,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4398,7 +4401,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4415,11 +4418,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4431,14 +4434,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4448,14 +4451,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4464,14 +4467,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,14 +4484,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4497,14 +4500,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,14 +4517,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>91</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4530,14 +4533,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4550,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4563,14 +4566,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4580,11 +4583,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4596,7 +4599,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4613,14 +4616,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4629,7 +4632,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4646,14 +4649,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4662,14 +4665,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,11 +4682,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4695,14 +4698,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4712,11 +4715,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4741,18 +4744,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4761,14 +4764,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4778,14 +4781,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4794,14 +4797,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4811,11 +4814,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4844,14 +4847,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>296</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4860,7 +4863,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4877,14 +4880,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4893,7 +4896,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4910,14 +4913,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4926,14 +4929,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,11 +4946,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4959,14 +4962,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>273</v>
+        <v>31</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4976,11 +4979,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4992,14 +4995,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5009,11 +5012,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5025,14 +5028,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5042,11 +5045,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>203</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5058,14 +5061,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,11 +5078,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5098,7 +5101,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5108,49 +5111,82 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>314</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>22</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>13</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
         <v>315</v>
       </c>
-      <c t="s" r="Q113" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5200.6149999999998</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>316</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5227.6149999999998</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
         <v>317</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
         <v>318</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>319</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5694,10 +5730,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -224,6 +233,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -254,240 +272,249 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>EUCARBON 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-90.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GERDCARE 5 MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>67.50</t>
+  </si>
+  <si>
+    <t>22.2750</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
   </si>
   <si>
     <t>59.4000</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>EUCARBON 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:11</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>-90.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>FLACORT 30MG 20 TAB</t>
-  </si>
-  <si>
-    <t>164.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GERDCARE 5 MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>67.50</t>
-  </si>
-  <si>
-    <t>22.2750</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
     <t>18.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -815,9 +842,6 @@
     <t>UNICTAM 750 MG I.M/I.V VIAL</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -899,10 +923,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>18:0</t>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -962,7 +986,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 9:39 PM</t>
+    <t>Sunday, 15 June, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1768,7 +1792,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1785,7 +1809,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1834,7 +1858,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1867,7 +1891,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1900,7 +1924,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1910,14 +1934,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1926,14 +1950,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1966,7 +1990,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1983,7 +2007,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1999,7 +2023,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2016,7 +2040,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2032,7 +2056,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2065,7 +2089,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2082,7 +2106,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2098,7 +2122,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2108,11 +2132,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -2124,14 +2148,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2141,7 +2165,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -2164,13 +2188,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2178,10 +2202,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2190,14 +2214,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2207,11 +2231,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -2223,31 +2247,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2256,14 +2280,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2273,14 +2297,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2289,14 +2313,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2306,14 +2330,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2322,31 +2346,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2355,14 +2379,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2372,14 +2396,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2395,24 +2419,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2421,14 +2445,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2438,11 +2462,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2454,7 +2478,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2471,14 +2495,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2504,14 +2528,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2520,14 +2544,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2537,11 +2561,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2553,14 +2577,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2570,11 +2594,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2586,14 +2610,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2603,11 +2627,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2619,14 +2643,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2636,14 +2660,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2652,14 +2676,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2669,14 +2693,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>116</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2685,14 +2709,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2702,14 +2726,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2718,14 +2742,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2735,14 +2759,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2751,14 +2775,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2768,14 +2792,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2784,14 +2808,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2801,11 +2825,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2817,14 +2841,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2834,14 +2858,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>134</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2857,7 +2881,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2890,7 +2914,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2900,14 +2924,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2916,14 +2940,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2933,11 +2957,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2949,14 +2973,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2966,11 +2990,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2982,14 +3006,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2999,14 +3023,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3055,7 +3079,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3072,7 +3096,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3098,14 +3122,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3114,14 +3138,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3131,11 +3155,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3147,31 +3171,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3180,7 +3204,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3197,14 +3221,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3213,14 +3237,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3230,14 +3254,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3246,14 +3270,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,14 +3287,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3279,7 +3303,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3296,11 +3320,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3312,7 +3336,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3329,11 +3353,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3345,31 +3369,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3378,14 +3402,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3395,11 +3419,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3411,7 +3435,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3428,14 +3452,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3444,14 +3468,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3461,14 +3485,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3477,14 +3501,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3494,14 +3518,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3510,14 +3534,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3527,11 +3551,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3543,14 +3567,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3560,14 +3584,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3576,14 +3600,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3597,10 +3621,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3609,14 +3633,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3633,7 +3657,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3649,7 +3673,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3666,7 +3690,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3682,7 +3706,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3692,11 +3716,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3708,14 +3732,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3725,14 +3749,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>204</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3741,14 +3765,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3758,11 +3782,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3774,14 +3798,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3791,11 +3815,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3807,14 +3831,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,14 +3848,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3840,14 +3864,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3857,14 +3881,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3873,14 +3897,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3890,14 +3914,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3906,14 +3930,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3923,14 +3947,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>125</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3939,14 +3963,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,11 +3980,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3979,7 +4003,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,14 +4013,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4005,14 +4029,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,14 +4046,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4038,31 +4062,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4071,14 +4095,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,14 +4112,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4111,7 +4135,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,14 +4145,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4137,28 +4161,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4170,14 +4194,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,11 +4211,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4203,28 +4227,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4236,14 +4260,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4253,14 +4277,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4269,14 +4293,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,11 +4310,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>91</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4302,31 +4326,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>55</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4359,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,14 +4376,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4375,7 +4399,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4409,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4408,7 +4432,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4425,7 +4449,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4441,7 +4465,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,11 +4475,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4467,14 +4491,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4484,14 +4508,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,14 +4524,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>51</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,11 +4541,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4533,14 +4557,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,14 +4574,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4566,14 +4590,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4583,14 +4607,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4599,14 +4623,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4616,7 +4640,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4639,7 +4663,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4649,14 +4673,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>110</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4665,14 +4689,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4682,11 +4706,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4705,7 +4729,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,14 +4772,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,7 +4788,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4777,18 +4801,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4797,28 +4821,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4830,7 +4854,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4843,15 +4867,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4863,7 +4887,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4880,14 +4904,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>297</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4896,14 +4920,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4913,14 +4937,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4946,11 +4970,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4962,14 +4986,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,14 +5003,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>196</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4995,14 +5019,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5012,14 +5036,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5028,14 +5052,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,7 +5069,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5068,7 +5092,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5078,11 +5102,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5101,7 +5125,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,11 +5135,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5127,14 +5151,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5144,49 +5168,148 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5227.6149999999998</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>319</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>308</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>13</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>212</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>321</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>12</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>13</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
         <v>317</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>318</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
-        <v>319</v>
-      </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>322</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>22</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>13</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>323</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>5369.4949999999999</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>325</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>326</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>327</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5735,10 +5858,25 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -77,384 +77,393 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>BEGONIA SHAMPOO 150 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BON-ONE 0.25 MCG 30 TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
+    <t>CAL-MAG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>CATAFLAM 25 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>CELEBORG 200 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>EUCARBON 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-90.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>AUGRAM 1GM 14 TABS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>BEGONIA SHAMPOO 150 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>BETOLVEX 1MG/ML 2 AMP</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BON-ONE 0.25 MCG 30 TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>65.3400</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
-  </si>
-  <si>
-    <t>142.00</t>
-  </si>
-  <si>
-    <t>142.0000</t>
-  </si>
-  <si>
-    <t>CAL-MAG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>CELEBORG 200 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>71.2800</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>EUCARBON 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:11</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>-90.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>FLACORT 30MG 20 TAB</t>
-  </si>
-  <si>
-    <t>164.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
     <t>17.8200</t>
   </si>
   <si>
@@ -986,7 +995,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 9:41 PM</t>
+    <t>Sunday, 15 June, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1743,7 +1752,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1752,14 +1761,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1769,14 +1778,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1809,7 +1818,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1924,7 +1933,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1974,7 +1983,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2007,7 +2016,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2040,7 +2049,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2122,7 +2131,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2139,7 +2148,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2238,7 +2247,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2260,7 +2269,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2268,10 +2277,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2280,31 +2289,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2320,7 +2329,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2346,14 +2355,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2363,14 +2372,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2379,14 +2388,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2396,14 +2405,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2412,31 +2421,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2445,20 +2454,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2469,7 +2478,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2485,7 +2494,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2495,11 +2504,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2528,14 +2537,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2544,14 +2553,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2577,14 +2586,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2594,14 +2603,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2627,14 +2636,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2660,14 +2669,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2676,14 +2685,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2775,14 +2784,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2841,14 +2850,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2874,14 +2883,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2891,14 +2900,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2907,14 +2916,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2924,14 +2933,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2940,14 +2949,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2957,11 +2966,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2973,14 +2982,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2990,14 +2999,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3023,14 +3032,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3046,7 +3055,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3056,14 +3065,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3079,7 +3088,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3096,7 +3105,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3112,7 +3121,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3129,7 +3138,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3178,7 +3187,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3211,7 +3220,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3221,14 +3230,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3237,14 +3246,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3270,20 +3279,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3291,10 +3300,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3310,24 +3319,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3376,24 +3385,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3402,7 +3411,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3415,11 +3424,11 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3442,7 +3451,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3459,7 +3468,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3475,7 +3484,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3485,14 +3494,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3518,14 +3527,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3541,7 +3550,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3551,11 +3560,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3567,14 +3576,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3584,11 +3593,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3654,10 +3663,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3690,7 +3699,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3706,7 +3715,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3723,7 +3732,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3739,7 +3748,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3756,7 +3765,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3772,7 +3781,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3789,7 +3798,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3815,11 +3824,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3831,14 +3840,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3848,14 +3857,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3864,14 +3873,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3885,10 +3894,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>216</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3904,7 +3913,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3937,7 +3946,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3947,14 +3956,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3980,11 +3989,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3996,14 +4005,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4013,14 +4022,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4036,7 +4045,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4053,7 +4062,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>134</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4069,7 +4078,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4086,7 +4095,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4102,7 +4111,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4112,14 +4121,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4128,7 +4137,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4145,11 +4154,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4168,13 +4177,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4201,13 +4210,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4218,7 +4227,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4234,7 +4243,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4244,14 +4253,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4284,7 +4293,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4300,7 +4309,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4310,14 +4319,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4326,31 +4335,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4359,31 +4368,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4392,14 +4401,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4409,14 +4418,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4432,7 +4441,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4442,14 +4451,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>101</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4465,7 +4474,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4482,7 +4491,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4498,7 +4507,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4531,7 +4540,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4574,11 +4583,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4590,14 +4599,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4607,14 +4616,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4623,14 +4632,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4640,14 +4649,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4656,14 +4665,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4673,14 +4682,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>101</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4696,7 +4705,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4706,14 +4715,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>215</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4722,14 +4731,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,11 +4748,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4772,14 +4781,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>119</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4788,7 +4797,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4805,14 +4814,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>121</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4828,7 +4837,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4861,7 +4870,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4871,11 +4880,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4887,7 +4896,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4900,18 +4909,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4920,14 +4929,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4941,10 +4950,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4953,14 +4962,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4970,11 +4979,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>43</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4986,7 +4995,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5003,14 +5012,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>305</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5019,7 +5028,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5036,7 +5045,7 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -5069,14 +5078,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5085,14 +5094,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,11 +5111,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5118,14 +5127,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5135,11 +5144,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5151,14 +5160,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5172,7 +5181,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5184,14 +5193,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,11 +5210,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5217,14 +5226,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,11 +5243,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5250,14 +5259,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5267,49 +5276,82 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>5369.4949999999999</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>325</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>150</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>13</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
         <v>326</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>327</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>5415.2049999999999</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>328</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>329</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>330</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5873,10 +5915,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -995,7 +995,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 9:54 PM</t>
+    <t>Sunday, 15 June, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -587,6 +587,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>MUCO 15MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -851,9 +857,6 @@
     <t>UNICTAM 750 MG I.M/I.V VIAL</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -932,10 +935,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>19:0</t>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>22:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -953,6 +956,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>شامبو صانسيلك صغير 180ملل</t>
   </si>
   <si>
@@ -971,12 +983,6 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>فازلين بيور كبير</t>
   </si>
   <si>
@@ -995,7 +1001,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 9:55 PM</t>
+    <t>Sunday, 15 June, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3616,7 +3622,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3626,11 +3632,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3642,14 +3648,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3659,14 +3665,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3675,14 +3681,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3692,14 +3698,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3708,14 +3714,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3725,14 +3731,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3741,14 +3747,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3758,14 +3764,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3774,14 +3780,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3791,14 +3797,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3807,14 +3813,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3824,14 +3830,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3840,7 +3846,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3857,11 +3863,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3873,14 +3879,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3890,14 +3896,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3906,14 +3912,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3923,14 +3929,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3939,14 +3945,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3956,11 +3962,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3972,14 +3978,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3989,14 +3995,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4005,14 +4011,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4022,14 +4028,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4038,14 +4044,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4055,11 +4061,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -4071,14 +4077,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4088,14 +4094,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>136</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4104,14 +4110,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4121,14 +4127,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4137,14 +4143,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4154,14 +4160,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4170,7 +4176,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4187,11 +4193,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>88</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4203,28 +4209,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4236,31 +4242,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4269,14 +4275,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4286,11 +4292,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>30</v>
@@ -4302,14 +4308,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,14 +4325,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4335,14 +4341,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4352,14 +4358,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4368,28 +4374,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>30</v>
@@ -4401,28 +4407,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>30</v>
@@ -4434,14 +4440,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>51</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,11 +4457,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>30</v>
@@ -4467,14 +4473,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>133</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4484,14 +4490,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4500,14 +4506,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4517,14 +4523,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4533,14 +4539,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,11 +4556,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4566,14 +4572,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4583,11 +4589,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4599,7 +4605,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4616,7 +4622,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4639,7 +4645,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,14 +4655,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4672,7 +4678,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,14 +4688,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4705,7 +4711,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4715,14 +4721,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>101</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,14 +4737,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,14 +4754,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4764,14 +4770,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,11 +4787,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4797,7 +4803,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4814,14 +4820,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4830,7 +4836,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4847,14 +4853,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>121</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4863,14 +4869,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4880,11 +4886,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4896,14 +4902,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4913,11 +4919,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4942,18 +4948,18 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,14 +4968,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4979,14 +4985,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,14 +5001,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5012,11 +5018,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5045,14 +5051,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>308</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5061,7 +5067,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5078,14 +5084,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5094,7 +5100,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5111,14 +5117,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5127,14 +5133,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5144,11 +5150,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>208</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5160,14 +5166,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5177,11 +5183,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5200,7 +5206,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>32</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,11 +5216,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5226,14 +5232,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,11 +5249,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>215</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>323</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5259,14 +5265,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,11 +5282,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5292,14 +5298,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,49 +5315,115 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>326</v>
+        <v>217</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>325</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>326</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>12</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>13</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>316</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>327</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>5415.2049999999999</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>150</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>13</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
         <v>328</v>
       </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>329</v>
       </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>5475.2049999999999</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
         <v>330</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>331</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>332</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5920,10 +5992,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -281,582 +281,597 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>EUCARBON 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-90.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GERDCARE 5 MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>67.50</t>
+  </si>
+  <si>
+    <t>22.2750</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>LIMITLESS OSTEODENSE TAB</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>MELANOFREE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 40MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>6:7</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>OTOCORT EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>OXYPOL EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 24 F.C. TAB</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>72.50</t>
+  </si>
+  <si>
+    <t>-14.5000</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>POM SHOWER GEL 250 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>564.00</t>
+  </si>
+  <si>
+    <t>28.2000</t>
+  </si>
+  <si>
+    <t>RELAX CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SODIUM BICARB 1000MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>TAVACIN 750MG 5 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>TOBRADEX EYE OINT. 3.5 GM</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>42.5000</t>
+  </si>
+  <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>71.2800</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>EUCARBON 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:11</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>-90.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>FLACORT 30MG 20 TAB</t>
-  </si>
-  <si>
-    <t>164.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GERDCARE 5 MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>67.50</t>
-  </si>
-  <si>
-    <t>22.2750</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:17</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LEVCET 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>LIMITLESS OSTEODENSE TAB</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>LOADLESS 5/20MG 30 CAP</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>MELANOFREE CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MUCO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>1:10</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OCTOVENT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 40MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>6:7</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>OTOCORT EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>OXYPOL EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>7.5000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 24 F.C. TAB</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>72.50</t>
-  </si>
-  <si>
-    <t>-14.5000</t>
-  </si>
-  <si>
-    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>39.3600</t>
-  </si>
-  <si>
-    <t>PLEGICA 1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>POM SHOWER GEL 250 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>564.00</t>
-  </si>
-  <si>
-    <t>28.2000</t>
-  </si>
-  <si>
-    <t>RELAX CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SODIUM BICARB 1000MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>TAVACIN 750MG 5 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>TOBRADEX EYE OINT. 3.5 GM</t>
-  </si>
-  <si>
-    <t>42.50</t>
-  </si>
-  <si>
-    <t>42.5000</t>
-  </si>
-  <si>
-    <t>TOPRO 10 SACHETS</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>TRITTICO 100MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>21.5000</t>
-  </si>
-  <si>
-    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
-  </si>
-  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -890,9 +905,6 @@
     <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -935,10 +947,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>22:0</t>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1001,7 +1010,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 10:01 PM</t>
+    <t>Sunday, 15 June, 2025 10:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2632,7 +2641,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2642,11 +2651,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2741,14 +2750,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2774,11 +2783,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2797,7 +2806,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2807,11 +2816,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2847,7 +2856,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>127</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2913,7 +2922,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2922,14 +2931,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2939,14 +2948,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>139</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2962,7 +2971,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2979,7 +2988,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2995,7 +3004,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3028,7 +3037,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3045,7 +3054,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3061,7 +3070,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3071,7 +3080,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3094,7 +3103,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3127,7 +3136,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3144,7 +3153,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3160,7 +3169,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3177,7 +3186,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3226,7 +3235,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3259,7 +3268,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3269,14 +3278,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3285,14 +3294,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3302,14 +3311,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3318,20 +3327,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3339,10 +3348,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3358,24 +3367,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3384,14 +3393,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3401,14 +3410,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3424,24 +3433,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3450,7 +3459,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3463,11 +3472,11 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3490,7 +3499,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3507,7 +3516,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3523,7 +3532,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3533,11 +3542,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>30</v>
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3566,14 +3575,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3589,7 +3598,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3599,11 +3608,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3632,11 +3641,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3665,11 +3674,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3681,14 +3690,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3698,14 +3707,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3735,10 +3744,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3771,7 +3780,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3787,7 +3796,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3804,7 +3813,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3820,7 +3829,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3837,7 +3846,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3853,7 +3862,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3870,7 +3879,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3896,11 +3905,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3929,14 +3938,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3945,14 +3954,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3966,10 +3975,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>221</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3985,7 +3994,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4018,7 +4027,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4044,14 +4053,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4061,14 +4070,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>52</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4094,11 +4103,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>30</v>
@@ -4127,14 +4136,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>136</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4143,14 +4152,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4160,11 +4169,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>30</v>
@@ -4176,14 +4185,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4193,14 +4202,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4216,7 +4225,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4233,7 +4242,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4249,21 +4258,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4275,14 +4284,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4292,14 +4301,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4308,31 +4317,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4341,14 +4350,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4358,14 +4367,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4374,14 +4383,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4391,11 +4400,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>30</v>
@@ -4407,31 +4416,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4440,14 +4449,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4457,11 +4466,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>86</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>30</v>
@@ -4473,28 +4482,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>30</v>
@@ -4513,7 +4522,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4523,14 +4532,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4539,14 +4548,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4556,14 +4565,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>101</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4572,14 +4581,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4589,14 +4598,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4605,14 +4614,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4622,11 +4631,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4638,14 +4647,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4655,11 +4664,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4671,14 +4680,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4688,14 +4697,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4711,7 +4720,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4721,11 +4730,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4737,14 +4746,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4754,7 +4763,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4787,11 +4796,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4810,7 +4819,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4827,7 +4836,7 @@
         <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4843,7 +4852,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4853,14 +4862,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4909,7 +4918,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4919,14 +4928,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4935,7 +4944,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4952,11 +4961,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4975,13 +4984,13 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -4989,10 +4998,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5001,28 +5010,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5034,7 +5043,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5051,14 +5060,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5067,14 +5076,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5091,7 +5100,7 @@
         <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>309</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5100,7 +5109,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5117,14 +5126,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>312</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5133,7 +5142,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5150,14 +5159,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5166,14 +5175,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5183,14 +5192,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5199,14 +5208,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5216,11 +5225,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5232,14 +5241,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>286</v>
+        <v>153</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5249,11 +5258,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>84</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5265,14 +5274,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>323</v>
+        <v>32</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5282,11 +5291,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5298,14 +5307,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5315,11 +5324,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5331,14 +5340,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5348,11 +5357,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5371,7 +5380,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5381,49 +5390,115 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>328</v>
+        <v>220</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>329</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>5475.2049999999999</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>12</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>13</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>319</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>330</v>
       </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>153</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>13</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
         <v>331</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
         <v>332</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>5521.7550000000001</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>333</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>334</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>335</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6002,10 +6077,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -122,7 +122,7 @@
     <t>152.00</t>
   </si>
   <si>
-    <t>76.0000</t>
+    <t>152.0000</t>
   </si>
   <si>
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
@@ -686,6 +686,9 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>OXYPOL EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -920,6 +923,18 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>35:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -971,27 +986,27 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>شامبو صانسيلك صغير 180ملل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>شامبو صانسيلك صغير 180ملل</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فازلين بيور صغير </t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>فازلين بيور كبير</t>
   </si>
   <si>
@@ -1010,7 +1025,10 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 10:05 PM</t>
+    <t>لبخه كوالين CREAM</t>
+  </si>
+  <si>
+    <t>Sunday, 15 June, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1816,7 +1834,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1833,7 +1851,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -4037,11 +4055,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4053,14 +4071,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4070,14 +4088,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4086,14 +4104,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4103,14 +4121,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>53</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4126,7 +4144,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4136,11 +4154,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>30</v>
@@ -4159,7 +4177,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4169,11 +4187,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>30</v>
@@ -4185,14 +4203,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4202,14 +4220,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4218,14 +4236,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4235,14 +4253,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4251,14 +4269,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4268,14 +4286,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4301,11 +4319,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>88</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4317,28 +4335,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4350,31 +4368,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4383,14 +4401,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,11 +4418,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>30</v>
@@ -4416,14 +4434,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4433,14 +4451,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4449,14 +4467,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4466,14 +4484,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4482,28 +4500,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>30</v>
@@ -4522,21 +4540,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>30</v>
@@ -4555,7 +4573,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>51</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4565,11 +4583,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>30</v>
@@ -4581,14 +4599,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4598,14 +4616,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4614,14 +4632,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4631,14 +4649,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4647,14 +4665,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4664,11 +4682,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4680,14 +4698,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4697,11 +4715,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4713,7 +4731,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4730,11 +4748,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4746,14 +4764,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4763,14 +4781,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4779,14 +4797,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>30</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4796,14 +4814,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4812,14 +4830,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4829,14 +4847,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>101</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4845,14 +4863,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4862,14 +4880,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4878,14 +4896,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4895,11 +4913,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>223</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4911,7 +4929,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4928,14 +4946,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4944,7 +4962,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4961,14 +4979,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4977,14 +4995,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4994,11 +5012,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5010,14 +5028,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5027,11 +5045,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5056,18 +5074,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5076,14 +5094,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5093,11 +5111,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5109,7 +5127,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5126,14 +5144,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5149,7 +5167,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5159,14 +5177,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>312</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5175,7 +5193,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5192,14 +5210,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>315</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5208,7 +5226,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5225,14 +5243,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q115" s="12">
         <v>317</v>
-      </c>
-      <c t="s" r="Q115" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5248,7 +5266,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5258,14 +5276,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q116" s="12">
         <v>320</v>
-      </c>
-      <c t="s" r="Q116" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5281,7 +5299,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5291,11 +5309,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5314,7 +5332,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>291</v>
+        <v>32</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5328,10 +5346,10 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>84</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5347,7 +5365,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5357,11 +5375,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5380,7 +5398,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5390,11 +5408,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>220</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>328</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5413,7 +5431,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>330</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5423,11 +5441,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5439,14 +5457,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>153</v>
+        <v>320</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5456,49 +5474,148 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>331</v>
+        <v>220</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>5521.7550000000001</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>333</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>334</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>12</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>13</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>324</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>335</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>153</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>13</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>336</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>337</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>338</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>51</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>13</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>324</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>5676.7550000000001</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>339</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>340</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>341</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6087,10 +6204,25 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -278,6 +278,15 @@
     <t>27.00</t>
   </si>
   <si>
+    <t>D-DEP 10000IU 30CAPS</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -320,6 +329,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -383,6 +401,12 @@
     <t>34.6500</t>
   </si>
   <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -425,315 +449,312 @@
     <t>180.00</t>
   </si>
   <si>
-    <t>-90.0000</t>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GERDCARE 5 MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>67.50</t>
+  </si>
+  <si>
+    <t>22.2750</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>LIMITLESS OSTEODENSE TAB</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>MELANOFREE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 40MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>6:7</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>OTOCORT EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OXYPOL EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 24 F.C. TAB</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>72.50</t>
+  </si>
+  <si>
+    <t>-14.5000</t>
   </si>
   <si>
     <t>0:-1</t>
   </si>
   <si>
-    <t>FLACORT 30MG 20 TAB</t>
-  </si>
-  <si>
-    <t>164.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GERDCARE 5 MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>67.50</t>
-  </si>
-  <si>
-    <t>22.2750</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:17</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LEVCET 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>LIMITLESS OSTEODENSE TAB</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>LOADLESS 5/20MG 30 CAP</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>MELANOFREE CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MUCO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>1:10</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OCTOVENT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 40MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>6:7</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>OTOCORT EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>OXYPOL EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>7.5000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 24 F.C. TAB</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>72.50</t>
-  </si>
-  <si>
-    <t>-14.5000</t>
-  </si>
-  <si>
     <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
   </si>
   <si>
@@ -827,9 +848,6 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>0.0000</t>
-  </si>
-  <si>
     <t>TAVACIN 750MG 5 TAB</t>
   </si>
   <si>
@@ -863,6 +881,12 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>TRITTICO 100MG 20 TAB.</t>
   </si>
   <si>
@@ -1028,7 +1052,7 @@
     <t>لبخه كوالين CREAM</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 10:07 PM</t>
+    <t>Sunday, 15 June, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2461,24 +2485,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2487,31 +2511,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2520,31 +2544,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2553,14 +2577,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2570,11 +2594,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2586,14 +2610,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2603,14 +2627,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2626,7 +2650,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2643,7 +2667,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2659,7 +2683,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2669,11 +2693,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2685,14 +2709,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2702,14 +2726,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2718,14 +2742,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2775,7 +2799,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2801,11 +2825,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2817,14 +2841,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2834,14 +2858,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2850,14 +2874,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2867,11 +2891,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2883,14 +2907,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2900,14 +2924,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>131</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2916,14 +2940,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2933,14 +2957,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2949,14 +2973,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2966,14 +2990,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2982,14 +3006,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2999,14 +3023,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3015,14 +3039,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3032,11 +3056,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3048,14 +3072,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3065,14 +3089,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3081,14 +3105,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3098,11 +3122,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -3114,14 +3138,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3131,14 +3155,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3147,14 +3171,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3164,11 +3188,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3180,14 +3204,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3197,11 +3221,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>30</v>
@@ -3213,14 +3237,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3230,14 +3254,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3246,7 +3270,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3263,11 +3287,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3279,14 +3303,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3296,14 +3320,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3312,7 +3336,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3329,14 +3353,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3345,14 +3369,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3362,11 +3386,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3385,24 +3409,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3428,14 +3452,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3444,14 +3468,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3461,14 +3485,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3484,7 +3508,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3494,14 +3518,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3527,11 +3551,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3543,7 +3567,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3560,11 +3584,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>30</v>
@@ -3576,31 +3600,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3609,14 +3633,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3626,11 +3650,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3642,7 +3666,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3659,14 +3683,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3682,7 +3706,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3692,14 +3716,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3708,7 +3732,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3725,11 +3749,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3741,14 +3765,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3758,14 +3782,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3781,7 +3805,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3791,11 +3815,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3807,14 +3831,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3824,14 +3848,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3840,14 +3864,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3857,14 +3881,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3873,14 +3897,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3890,14 +3914,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3906,14 +3930,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3923,14 +3947,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3939,14 +3963,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3956,11 +3980,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3972,14 +3996,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3989,14 +4013,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>221</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4005,14 +4029,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4022,11 +4046,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4038,14 +4062,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4055,11 +4079,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4071,14 +4095,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4088,14 +4112,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4104,14 +4128,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4121,14 +4145,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4137,14 +4161,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4154,14 +4178,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4170,14 +4194,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4187,14 +4211,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4210,7 +4234,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4220,14 +4244,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4236,14 +4260,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4253,14 +4277,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4269,14 +4293,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4286,11 +4310,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>30</v>
@@ -4302,14 +4326,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4319,14 +4343,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4335,14 +4359,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4352,14 +4376,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>247</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4375,13 +4399,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4392,7 +4416,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4408,7 +4432,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4418,14 +4442,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>88</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4434,14 +4458,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4451,14 +4475,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4467,28 +4491,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4500,14 +4524,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4517,11 +4541,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>30</v>
@@ -4533,28 +4557,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>30</v>
@@ -4566,14 +4590,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4583,14 +4607,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4599,14 +4623,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4616,11 +4640,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>30</v>
@@ -4632,31 +4656,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>55</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4672,7 +4696,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4682,14 +4706,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>28</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4698,14 +4722,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4715,14 +4739,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>104</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4731,14 +4755,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4748,14 +4772,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4764,14 +4788,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4781,11 +4805,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4797,14 +4821,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4814,14 +4838,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4830,14 +4854,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>51</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4847,11 +4871,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>196</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4870,7 +4894,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4880,14 +4904,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4896,14 +4920,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>97</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4913,14 +4937,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4929,14 +4953,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4946,14 +4970,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4962,14 +4986,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4979,14 +5003,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4995,14 +5019,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5012,14 +5036,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5028,14 +5052,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5045,11 +5069,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5061,7 +5085,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5078,11 +5102,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5101,24 +5125,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>133</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5127,7 +5151,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5140,18 +5164,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>114</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5160,28 +5184,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5193,7 +5217,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5206,15 +5230,15 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5226,14 +5250,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5243,14 +5267,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>317</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5259,7 +5283,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5276,14 +5300,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>320</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5292,14 +5316,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5309,11 +5333,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5325,14 +5349,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5342,14 +5366,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>319</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5358,14 +5382,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5375,14 +5399,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5391,14 +5415,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5408,14 +5432,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>84</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5431,7 +5455,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>330</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5441,11 +5465,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5457,14 +5481,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5474,14 +5498,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>220</v>
+        <v>332</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5490,14 +5514,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5507,11 +5531,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5530,7 +5554,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5544,7 +5568,7 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5556,14 +5580,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>51</v>
+        <v>338</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5573,49 +5597,181 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>5676.7550000000001</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>340</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>328</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>13</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>226</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>341</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>342</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>12</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>13</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>332</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
         <v>339</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>340</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
-        <v>341</v>
-      </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>343</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>160</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>13</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>344</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>345</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>346</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>51</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>13</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>332</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6015.7550000000001</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>347</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>348</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>349</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6219,10 +6375,30 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -278,6 +278,18 @@
     <t>27.00</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>D-DEP 10000IU 30CAPS</t>
   </si>
   <si>
@@ -311,6 +323,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DELTACLAV 457MG/5ML PD. FOR ORAL 80ML SUSP.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>DEVAROL-S 200000 I.U AMPOULE</t>
   </si>
   <si>
@@ -707,6 +728,18 @@
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>OXYPOL EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -782,7 +815,7 @@
     <t>57.00</t>
   </si>
   <si>
-    <t>57.0000</t>
+    <t>114.0000</t>
   </si>
   <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
@@ -929,6 +962,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8661:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
   </si>
   <si>
@@ -983,57 +1028,48 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
     <t>30.0000</t>
   </si>
   <si>
+    <t>شامبو صانسيلك صغير 180ملل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>شامبو صانسيلك صغير 180ملل</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فازلين بيور صغير </t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>فازلين بيور كبير</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -1052,7 +1088,7 @@
     <t>لبخه كوالين CREAM</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 10:11 PM</t>
+    <t>Sunday, 15 June, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2485,21 +2521,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2511,31 +2547,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2557,18 +2593,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2584,24 +2620,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2610,14 +2646,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2627,11 +2663,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2643,14 +2679,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2660,14 +2696,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2676,14 +2712,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2693,14 +2729,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2709,14 +2745,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2726,14 +2762,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2742,14 +2778,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2782,7 +2818,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2799,7 +2835,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2815,7 +2851,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2825,11 +2861,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2841,7 +2877,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2858,14 +2894,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2874,7 +2910,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2891,11 +2927,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2907,14 +2943,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2924,14 +2960,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2940,14 +2976,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2957,11 +2993,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2973,14 +3009,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2990,11 +3026,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -3006,14 +3042,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3023,14 +3059,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3039,14 +3075,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3056,14 +3092,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3072,14 +3108,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3089,14 +3125,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>146</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3112,7 +3148,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3122,14 +3158,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3138,14 +3174,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3155,14 +3191,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3171,14 +3207,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3188,14 +3224,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3204,14 +3240,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3221,14 +3257,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3237,14 +3273,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3254,14 +3290,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3270,14 +3306,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3287,14 +3323,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3303,14 +3339,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3320,11 +3356,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -3336,7 +3372,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3353,11 +3389,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3369,14 +3405,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3386,14 +3422,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3402,14 +3438,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3419,11 +3455,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3435,7 +3471,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3452,14 +3488,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3468,14 +3504,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3485,11 +3521,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3501,31 +3537,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3534,14 +3570,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3551,11 +3587,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3567,28 +3603,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>30</v>
@@ -3600,7 +3636,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3613,15 +3649,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3633,14 +3669,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3650,14 +3686,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3666,31 +3702,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3699,14 +3735,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3716,14 +3752,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3732,14 +3768,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3749,14 +3785,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3765,14 +3801,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3782,14 +3818,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3798,14 +3834,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3815,11 +3851,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3831,14 +3867,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3848,11 +3884,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3864,14 +3900,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3881,14 +3917,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3897,14 +3933,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3914,11 +3950,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3937,7 +3973,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3947,11 +3983,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>30</v>
@@ -3970,7 +4006,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3980,11 +4016,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3996,14 +4032,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4013,11 +4049,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -4029,14 +4065,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4046,11 +4082,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4062,14 +4098,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4079,14 +4115,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4095,14 +4131,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4112,14 +4148,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>227</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4128,14 +4164,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4145,11 +4181,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4168,7 +4204,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4178,14 +4214,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4194,14 +4230,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4211,11 +4247,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4227,14 +4263,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4244,14 +4280,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>75</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4267,7 +4303,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4277,14 +4313,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4293,14 +4329,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4310,14 +4346,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4326,14 +4362,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4343,14 +4379,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4359,14 +4395,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4376,14 +4412,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>247</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4392,14 +4428,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4409,11 +4445,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>140</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>30</v>
@@ -4425,14 +4461,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4442,14 +4478,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>53</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4458,14 +4494,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4475,14 +4511,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4491,31 +4527,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4524,14 +4560,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4541,14 +4577,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>88</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4557,14 +4593,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4574,14 +4610,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4590,7 +4626,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4603,18 +4639,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4623,14 +4659,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4663,21 +4699,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>30</v>
@@ -4689,14 +4725,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4706,14 +4742,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>86</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4722,14 +4758,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4739,11 +4775,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>30</v>
@@ -4755,31 +4791,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>55</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4788,14 +4824,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4805,14 +4841,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4821,14 +4857,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4838,14 +4874,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>111</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4854,14 +4890,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4871,14 +4907,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4887,14 +4923,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4904,11 +4940,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4920,14 +4956,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4937,14 +4973,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4953,14 +4989,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4970,14 +5006,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>19</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4986,14 +5022,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>295</v>
+        <v>51</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5003,11 +5039,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5019,14 +5055,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5036,11 +5072,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>30</v>
@@ -5052,14 +5088,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5069,14 +5105,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5085,14 +5121,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5102,11 +5138,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5118,14 +5154,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5135,14 +5171,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5151,14 +5187,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5168,11 +5204,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5184,14 +5220,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5201,11 +5237,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5217,7 +5253,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5234,14 +5270,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>253</v>
+        <v>140</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5250,31 +5286,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5283,7 +5319,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5296,18 +5332,18 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>121</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5316,28 +5352,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>319</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5349,7 +5385,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5362,15 +5398,15 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5382,14 +5418,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5399,14 +5435,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>238</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>325</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5415,7 +5451,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5432,14 +5468,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>328</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5448,14 +5484,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>334</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5465,11 +5501,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5481,14 +5517,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5498,14 +5534,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>327</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5514,14 +5550,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5531,14 +5567,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5547,14 +5583,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5564,14 +5600,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>334</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5580,14 +5616,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>338</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5601,7 +5637,7 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5613,14 +5649,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>328</v>
+        <v>32</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5630,14 +5666,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5646,14 +5682,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5663,11 +5699,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5679,14 +5715,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>160</v>
+        <v>311</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5696,11 +5732,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>345</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5712,14 +5748,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5729,49 +5765,181 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>332</v>
+        <v>241</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>339</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>6015.7550000000001</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>347</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>348</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>349</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>351</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>352</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>13</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>233</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>353</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>354</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>12</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>13</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>241</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>355</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>167</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>13</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>356</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>357</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>358</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>51</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>13</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>241</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>6204.7550000000001</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>359</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>360</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>361</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6395,10 +6563,30 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -839,6 +839,18 @@
     <t>28.2000</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>9:17</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>75.2000</t>
+  </si>
+  <si>
     <t>RELAX CREAM 50 GM</t>
   </si>
   <si>
@@ -1088,7 +1100,7 @@
     <t>لبخه كوالين CREAM</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 10:17 PM</t>
+    <t>Sunday, 15 June, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4732,7 +4744,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4742,14 +4754,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4758,14 +4770,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4782,7 +4794,7 @@
         <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4798,21 +4810,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>25</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>30</v>
@@ -4824,28 +4836,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>30</v>
@@ -4857,14 +4869,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>51</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4874,11 +4886,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>30</v>
@@ -4890,14 +4902,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>99</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4907,14 +4919,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>111</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4923,14 +4935,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4940,14 +4952,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4956,14 +4968,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4973,11 +4985,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4989,14 +5001,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5006,11 +5018,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5022,7 +5034,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5039,11 +5051,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5055,14 +5067,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5072,14 +5084,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>225</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5088,14 +5100,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5105,11 +5117,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>19</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>30</v>
@@ -5121,14 +5133,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>30</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5138,14 +5150,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5154,14 +5166,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5171,14 +5183,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>111</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5187,14 +5199,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5204,14 +5216,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5220,14 +5232,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5237,11 +5249,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5253,7 +5265,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5270,14 +5282,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>140</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5286,14 +5298,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5303,14 +5315,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>140</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5326,7 +5338,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5336,14 +5348,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>121</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5352,14 +5364,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5369,11 +5381,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>324</v>
+        <v>121</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5385,14 +5397,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5402,11 +5414,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5418,28 +5430,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>330</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5458,7 +5470,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5468,14 +5480,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5484,14 +5496,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5501,14 +5513,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5524,7 +5536,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5534,11 +5546,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5550,7 +5562,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5567,14 +5579,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>339</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5583,7 +5595,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5600,14 +5612,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5616,7 +5628,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5633,14 +5645,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5649,14 +5661,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5666,14 +5678,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5682,7 +5694,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5699,14 +5711,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>346</v>
+        <v>241</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>226</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5715,14 +5727,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>311</v>
+        <v>32</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5732,11 +5744,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5748,14 +5760,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5765,11 +5777,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>241</v>
+        <v>352</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>242</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5781,14 +5793,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5798,11 +5810,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>353</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5814,14 +5826,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>356</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5831,11 +5843,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5847,14 +5859,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5864,11 +5876,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>356</v>
+        <v>241</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>357</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5880,14 +5892,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5897,49 +5909,82 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>241</v>
+        <v>360</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
+        <v>361</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>362</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>51</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>13</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>241</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
         <v>242</v>
       </c>
-      <c t="s" r="Q133" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>6204.7550000000001</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>359</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>360</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
-        <v>361</v>
-      </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>6279.9549999999999</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>363</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>364</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>365</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6583,10 +6628,15 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -776,6 +776,12 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PEOPO-OTIC EAR DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>PHYTO K 10 MG 50 F.C.TAB.</t>
   </si>
   <si>
@@ -953,6 +959,24 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -1055,9 +1079,6 @@
     <t>سهايه الجو</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>شامبو صانسيلك صغير 180ملل</t>
   </si>
   <si>
@@ -1100,7 +1121,7 @@
     <t>لبخه كوالين CREAM</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 10:18 PM</t>
+    <t>Sunday, 15 June, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4513,7 +4534,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4523,14 +4544,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>258</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4539,14 +4560,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4556,14 +4577,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4572,14 +4593,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4589,14 +4610,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>88</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4605,7 +4626,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4622,11 +4643,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4638,7 +4659,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4651,18 +4672,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4671,31 +4692,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4704,14 +4725,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4721,11 +4742,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>30</v>
@@ -4737,14 +4758,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4754,14 +4775,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4770,14 +4791,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4787,14 +4808,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4803,14 +4824,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4820,14 +4841,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4836,28 +4857,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>55</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>56</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>30</v>
@@ -4869,28 +4890,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>30</v>
@@ -4902,14 +4923,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>51</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4919,11 +4940,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>30</v>
@@ -4935,14 +4956,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4952,14 +4973,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>111</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4975,7 +4996,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4989,10 +5010,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5001,14 +5022,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5018,11 +5039,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5034,14 +5055,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5051,11 +5072,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5067,7 +5088,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5084,7 +5105,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>225</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5107,7 +5128,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5117,14 +5138,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5140,7 +5161,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5150,7 +5171,7 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -5173,7 +5194,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5183,14 +5204,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>209</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5206,7 +5227,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5216,14 +5237,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>111</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5232,14 +5253,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>315</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5249,14 +5270,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5305,7 +5326,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5315,14 +5336,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5331,14 +5352,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5348,14 +5369,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5364,7 +5385,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5381,7 +5402,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>121</v>
+        <v>325</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5404,7 +5425,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5414,14 +5435,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>328</v>
+        <v>140</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5430,14 +5451,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>330</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5447,14 +5468,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>264</v>
+        <v>331</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5463,24 +5484,24 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>333</v>
+        <v>121</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
@@ -5503,13 +5524,13 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5517,10 +5538,10 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5529,28 +5550,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>338</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5562,14 +5583,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5579,11 +5600,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5595,7 +5616,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5612,14 +5633,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>343</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5628,14 +5649,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>346</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5645,14 +5666,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>338</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5661,7 +5682,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5678,11 +5699,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>336</v>
+        <v>42</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>346</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5694,14 +5715,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5711,14 +5732,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>241</v>
+        <v>331</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>51</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5727,14 +5748,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5744,14 +5765,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>346</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5760,14 +5781,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5777,11 +5798,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>84</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5793,14 +5814,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>354</v>
+        <v>32</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5814,10 +5835,10 @@
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5826,14 +5847,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>356</v>
+        <v>32</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5843,11 +5864,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>357</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5866,7 +5887,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5876,11 +5897,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>241</v>
+        <v>359</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>242</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5892,14 +5913,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>167</v>
+        <v>361</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5909,11 +5930,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>361</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5932,7 +5953,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>51</v>
+        <v>363</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5942,49 +5963,148 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
+        <v>364</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>365</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>12</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>13</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>241</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
         <v>242</v>
       </c>
-      <c t="s" r="Q134" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>6279.9549999999999</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>363</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
-        <v>364</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
-        <v>365</v>
-      </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>366</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>167</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>13</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>367</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>368</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>369</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>51</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>13</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>241</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>6423.9549999999999</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>370</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>371</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>372</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6633,10 +6753,25 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -332,6 +332,15 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>DEVAROL-S 200000 I.U AMPOULE</t>
   </si>
   <si>
@@ -485,12 +494,6 @@
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -833,6 +836,15 @@
     <t>67.3200</t>
   </si>
   <si>
+    <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -1121,7 +1133,10 @@
     <t>لبخه كوالين CREAM</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 10:20 PM</t>
+    <t>ماكس كيلر</t>
+  </si>
+  <si>
+    <t>Sunday, 15 June, 2025 10:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2719,7 +2734,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2729,11 +2744,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2745,14 +2760,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2762,11 +2777,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2795,14 +2810,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2818,7 +2833,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2835,7 +2850,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2851,7 +2866,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2868,7 +2883,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2884,7 +2899,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2894,14 +2909,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2910,14 +2925,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2950,7 +2965,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2983,7 +2998,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3000,7 +3015,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3016,7 +3031,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3026,14 +3041,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3042,14 +3057,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3059,11 +3074,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3092,11 +3107,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3125,7 +3140,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3148,7 +3163,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3158,14 +3173,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3174,14 +3189,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3191,14 +3206,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3207,14 +3222,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3231,7 +3246,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3247,7 +3262,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3264,7 +3279,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3280,7 +3295,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3297,7 +3312,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3313,7 +3328,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3323,11 +3338,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3356,14 +3371,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3372,14 +3387,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3389,11 +3404,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -3405,14 +3420,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3422,14 +3437,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3438,14 +3453,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3455,14 +3470,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3488,14 +3503,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3504,7 +3519,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3521,11 +3536,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3537,14 +3552,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3554,11 +3569,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3570,14 +3585,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3587,14 +3602,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3603,14 +3618,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3620,14 +3635,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3636,31 +3651,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3669,31 +3684,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3709,7 +3724,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3719,14 +3734,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3735,31 +3750,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3768,7 +3783,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3781,15 +3796,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3801,14 +3816,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3818,14 +3833,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3834,14 +3849,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3851,11 +3866,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3874,7 +3889,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3884,14 +3899,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3900,14 +3915,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3917,11 +3932,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3933,14 +3948,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3950,11 +3965,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3966,14 +3981,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3983,11 +3998,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -4006,7 +4021,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4016,14 +4031,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4032,14 +4047,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4049,14 +4064,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4065,14 +4080,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4082,14 +4097,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4098,14 +4113,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4115,14 +4130,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4131,14 +4146,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4148,14 +4163,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4164,14 +4179,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4181,14 +4196,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4197,7 +4212,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4214,11 +4229,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4237,7 +4252,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4247,14 +4262,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>234</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4263,14 +4278,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4280,14 +4295,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4296,14 +4311,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4313,11 +4328,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4336,7 +4351,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4346,11 +4361,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4362,14 +4377,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4379,11 +4394,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4395,14 +4410,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4412,14 +4427,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4428,14 +4443,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4445,14 +4460,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>53</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4468,7 +4483,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4478,11 +4493,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>30</v>
@@ -4501,7 +4516,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4511,11 +4526,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>30</v>
@@ -4527,14 +4542,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4544,14 +4559,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4560,14 +4575,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4577,14 +4592,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>260</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4593,14 +4608,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4610,14 +4625,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4626,14 +4641,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4643,14 +4658,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4676,11 +4691,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>88</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4692,7 +4707,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4705,18 +4720,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4725,31 +4740,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4758,14 +4773,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4775,11 +4790,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>30</v>
@@ -4791,14 +4806,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4808,14 +4823,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4824,14 +4839,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4841,14 +4856,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4857,14 +4872,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4874,14 +4889,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4890,31 +4905,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>55</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>56</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4923,14 +4938,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>51</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4940,11 +4955,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>28</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>86</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>30</v>
@@ -4956,28 +4971,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>30</v>
@@ -4996,7 +5011,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5006,14 +5021,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>28</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5022,14 +5037,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5039,14 +5054,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>114</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5055,14 +5070,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5072,14 +5087,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5088,14 +5103,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5105,11 +5120,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5121,14 +5136,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5138,11 +5153,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>225</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5154,14 +5169,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5171,14 +5186,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5194,7 +5209,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5204,14 +5219,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5227,7 +5242,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>101</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5237,14 +5252,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>111</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>209</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5260,7 +5275,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5270,11 +5285,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>19</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>30</v>
@@ -5286,14 +5301,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5303,11 +5318,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>114</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5319,7 +5334,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5336,14 +5351,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5352,14 +5367,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5369,11 +5384,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>237</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5385,14 +5400,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5402,11 +5417,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5418,14 +5433,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5435,14 +5450,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5451,14 +5466,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>330</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5468,14 +5483,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5484,7 +5499,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5501,14 +5516,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5517,14 +5532,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5534,14 +5549,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5550,7 +5565,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5567,11 +5582,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>266</v>
+        <v>124</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5590,21 +5605,21 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5616,7 +5631,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5629,18 +5644,18 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5649,14 +5664,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5666,11 +5681,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5682,7 +5697,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5699,14 +5714,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5715,14 +5730,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5732,14 +5747,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>249</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>351</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5748,7 +5763,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5765,14 +5780,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>344</v>
+        <v>42</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>346</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5781,7 +5796,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5798,14 +5813,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>354</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>355</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5814,14 +5829,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5831,14 +5846,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>321</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>51</v>
+        <v>350</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5847,14 +5862,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5864,11 +5879,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5880,14 +5895,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>323</v>
+        <v>32</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5897,14 +5912,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>359</v>
+        <v>242</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>84</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5920,7 +5935,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>361</v>
+        <v>32</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5930,11 +5945,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>241</v>
+        <v>361</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5953,7 +5968,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5963,11 +5978,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>233</v>
+        <v>363</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5979,14 +5994,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>12</v>
+        <v>365</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5996,11 +6011,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6019,7 +6034,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6029,7 +6044,7 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>367</v>
+        <v>234</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
@@ -6052,7 +6067,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6062,49 +6077,148 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>370</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>168</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>13</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>371</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>372</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>373</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>51</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>13</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
         <v>242</v>
       </c>
-      <c t="s" r="Q137" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>6423.9549999999999</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>370</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
-        <v>371</v>
-      </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
-        <v>372</v>
-      </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>374</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>12</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>13</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>234</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>368</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>6724.9549999999999</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>375</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>376</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>377</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6768,10 +6882,25 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -290,6 +290,24 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>C-RETARD 500MG 10 CAPS</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>D-DEP 10000IU 30CAPS</t>
   </si>
   <si>
@@ -497,12 +515,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -524,9 +536,6 @@
     <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
   </si>
   <si>
-    <t>190.00</t>
-  </si>
-  <si>
     <t>190.0000</t>
   </si>
   <si>
@@ -584,6 +593,15 @@
     <t>0:17</t>
   </si>
   <si>
+    <t>LEVANIC 750 MG 5 TAB</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>LEVCET 5MG 20 TAB.</t>
   </si>
   <si>
@@ -623,6 +641,12 @@
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
+    <t>MEGALASE 30 TAB</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>MELANOFREE CREAM 30 GM</t>
   </si>
   <si>
@@ -662,12 +686,6 @@
     <t>0:5</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>NORGESIC 20 TAB.</t>
   </si>
   <si>
@@ -1136,7 +1154,7 @@
     <t>ماكس كيلر</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 10:26 PM</t>
+    <t>Sunday, 15 June, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2602,13 +2620,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2619,7 +2637,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2635,7 +2653,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2645,14 +2663,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2661,14 +2679,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2678,11 +2696,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>30</v>
@@ -2694,14 +2712,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2711,14 +2729,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2727,20 +2745,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2751,7 +2769,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2777,11 +2795,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2793,7 +2811,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2810,11 +2828,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2826,14 +2844,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2843,14 +2861,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2859,14 +2877,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2876,14 +2894,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2899,7 +2917,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2916,7 +2934,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2932,7 +2950,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2942,11 +2960,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2958,14 +2976,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2975,14 +2993,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3048,7 +3066,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3074,11 +3092,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -3090,14 +3108,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3107,14 +3125,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3140,11 +3158,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -3163,7 +3181,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3173,11 +3191,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>30</v>
@@ -3189,14 +3207,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3206,14 +3224,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>149</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3222,14 +3240,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3239,14 +3257,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3255,14 +3273,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3272,14 +3290,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3288,14 +3306,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3312,7 +3330,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3328,7 +3346,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3338,14 +3356,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3354,14 +3372,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3371,14 +3389,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3387,14 +3405,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3404,14 +3422,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3427,7 +3445,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3437,14 +3455,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3453,14 +3471,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3470,14 +3488,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3486,14 +3504,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3503,11 +3521,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3519,7 +3537,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3536,11 +3554,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3552,14 +3570,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3569,14 +3587,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3585,14 +3603,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3602,11 +3620,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3618,7 +3636,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3635,14 +3653,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3651,14 +3669,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3668,11 +3686,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3684,31 +3702,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3717,14 +3735,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3734,11 +3752,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3757,21 +3775,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>30</v>
@@ -3783,7 +3801,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3796,11 +3814,11 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3833,11 +3851,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3849,7 +3867,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3866,11 +3884,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3882,31 +3900,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3915,14 +3933,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3932,11 +3950,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3948,7 +3966,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3965,14 +3983,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3988,7 +4006,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3998,14 +4016,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4014,14 +4032,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4031,11 +4049,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4054,7 +4072,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4064,14 +4082,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4087,7 +4105,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4097,11 +4115,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4113,14 +4131,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4130,14 +4148,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4146,7 +4164,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4163,11 +4181,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>94</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4179,14 +4197,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4196,11 +4214,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -4212,14 +4230,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4229,11 +4247,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4245,14 +4263,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4262,14 +4280,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4278,14 +4296,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4295,14 +4313,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>235</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4311,14 +4329,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4328,14 +4346,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4344,14 +4362,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4361,11 +4379,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4377,14 +4395,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4394,11 +4412,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4410,14 +4428,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4427,14 +4445,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4443,14 +4461,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4460,14 +4478,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4476,14 +4494,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4493,14 +4511,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4509,14 +4527,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4526,14 +4544,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4542,14 +4560,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4559,14 +4577,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4575,14 +4593,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4592,14 +4610,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4608,14 +4626,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4625,14 +4643,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>52</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>261</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4641,14 +4659,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4658,11 +4676,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>30</v>
@@ -4674,14 +4692,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4691,14 +4709,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>88</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>53</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4707,7 +4725,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4724,11 +4742,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4740,31 +4758,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>51</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4773,14 +4791,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4790,11 +4808,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>30</v>
@@ -4806,7 +4824,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4823,11 +4841,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>88</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4839,14 +4857,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4856,14 +4874,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4872,31 +4890,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4905,14 +4923,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4922,14 +4940,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4938,14 +4956,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4955,14 +4973,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4971,28 +4989,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>55</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>56</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>30</v>
@@ -5004,14 +5022,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>51</v>
+        <v>289</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5021,14 +5039,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>86</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5037,14 +5055,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5054,14 +5072,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>114</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5070,14 +5088,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>99</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5087,14 +5105,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5103,31 +5121,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>55</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5136,14 +5154,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5153,14 +5171,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>28</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5169,14 +5187,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>51</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5186,14 +5204,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>120</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5202,14 +5220,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5219,14 +5237,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5235,14 +5253,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5252,14 +5270,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5268,14 +5286,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5285,14 +5303,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5301,14 +5319,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>316</v>
+        <v>51</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5318,11 +5336,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>114</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>210</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5334,14 +5352,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5351,14 +5369,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>232</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5367,14 +5385,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5384,14 +5402,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5400,14 +5418,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5417,14 +5435,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5433,14 +5451,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5450,11 +5468,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5466,14 +5484,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5483,14 +5501,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5499,7 +5517,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5516,14 +5534,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>143</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5532,14 +5550,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>334</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5549,14 +5567,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5565,14 +5583,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5582,11 +5600,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>338</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5598,14 +5616,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5615,11 +5633,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5631,7 +5649,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5648,14 +5666,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5664,31 +5682,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5697,7 +5715,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5710,18 +5728,18 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5730,28 +5748,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5763,7 +5781,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5776,15 +5794,15 @@
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>43</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5796,14 +5814,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5813,14 +5831,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>250</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>355</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5829,7 +5847,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5846,14 +5864,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>350</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5862,14 +5880,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>356</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5879,7 +5897,7 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
@@ -5902,7 +5920,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5912,14 +5930,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5935,7 +5953,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5945,14 +5963,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5968,7 +5986,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>327</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5978,14 +5996,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>356</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5994,14 +6012,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>365</v>
+        <v>12</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6011,11 +6029,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>242</v>
+        <v>354</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>243</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6027,14 +6045,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>367</v>
+        <v>32</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6044,14 +6062,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6060,14 +6078,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6077,11 +6095,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>242</v>
+        <v>367</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6093,14 +6111,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>168</v>
+        <v>333</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6110,11 +6128,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>372</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6126,14 +6144,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>51</v>
+        <v>371</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6143,11 +6161,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6159,14 +6177,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>12</v>
+        <v>373</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6176,49 +6194,181 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
-      <c r="P141" s="13">
-        <v>6724.9549999999999</v>
-      </c>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s="14">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
         <v>375</v>
       </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c t="s" r="G142" s="15">
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>12</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>13</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>248</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
         <v>376</v>
       </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="16"/>
-      <c t="s" r="K142" s="17">
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>172</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>13</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
         <v>377</v>
       </c>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="17"/>
-      <c r="Q142" s="17"/>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>378</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>379</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>51</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>13</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>248</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>380</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>12</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>13</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>240</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>374</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="P145" s="13">
+        <v>6992.9549999999999</v>
+      </c>
+      <c r="Q145" s="13"/>
+    </row>
+    <row r="146" ht="16.5" customHeight="1">
+      <c t="s" r="A146" s="14">
+        <v>381</v>
+      </c>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c t="s" r="G146" s="15">
+        <v>382</v>
+      </c>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="16"/>
+      <c t="s" r="K146" s="17">
+        <v>383</v>
+      </c>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+      <c r="N146" s="17"/>
+      <c r="O146" s="17"/>
+      <c r="P146" s="17"/>
+      <c r="Q146" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="682">
+  <mergeCells count="702">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6897,10 +7047,30 @@
     <mergeCell ref="H140:K140"/>
     <mergeCell ref="L140:M140"/>
     <mergeCell ref="N140:O140"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="P145:Q145"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="K146:Q146"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -1154,7 +1154,7 @@
     <t>ماكس كيلر</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 10:30 PM</t>
+    <t>Sunday, 15 June, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -1154,7 +1154,7 @@
     <t>ماكس كيلر</t>
   </si>
   <si>
-    <t>Sunday, 15 June, 2025 10:33 PM</t>
+    <t>Sunday, 15 June, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-15_00-00.xlsx
+++ b/DaySale_2025-06-15_00-00.xlsx
@@ -368,6 +368,15 @@
     <t>DEXATROL EYE/EAR DROPS 5 ML</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -470,12 +479,6 @@
     <t>1:11</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>0:4</t>
   </si>
   <si>
@@ -1124,9 +1127,6 @@
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>فازلين بيور كبير</t>
   </si>
   <si>
@@ -1152,6 +1152,12 @@
   </si>
   <si>
     <t>ماكس كيلر</t>
+  </si>
+  <si>
+    <t>معجون اسنان مسواك كبير</t>
+  </si>
+  <si>
+    <t>45.00</t>
   </si>
   <si>
     <t>Sunday, 15 June, 2025 10:35 PM</t>
@@ -2917,7 +2923,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2934,7 +2940,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2950,7 +2956,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2967,7 +2973,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2983,7 +2989,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3000,7 +3006,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3016,7 +3022,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3026,14 +3032,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3042,14 +3048,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3082,7 +3088,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3115,7 +3121,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3132,7 +3138,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3148,7 +3154,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3158,14 +3164,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3174,14 +3180,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3191,11 +3197,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>30</v>
@@ -3207,14 +3213,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3224,11 +3230,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3257,7 +3263,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3280,7 +3286,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>155</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3306,14 +3312,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3323,14 +3329,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3339,14 +3345,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3356,14 +3362,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3389,14 +3395,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3405,14 +3411,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3422,14 +3428,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3445,7 +3451,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3455,11 +3461,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3478,7 +3484,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3488,14 +3494,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3521,11 +3527,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3570,14 +3576,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3587,14 +3593,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3603,14 +3609,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3620,14 +3626,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3636,7 +3642,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3653,11 +3659,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3669,14 +3675,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3686,11 +3692,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3702,14 +3708,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3719,14 +3725,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3735,14 +3741,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3752,14 +3758,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3768,31 +3774,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3801,31 +3807,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3834,7 +3840,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3851,11 +3857,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3874,7 +3880,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3884,14 +3890,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3900,31 +3906,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3933,7 +3939,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3946,15 +3952,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3966,14 +3972,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3983,14 +3989,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3999,14 +4005,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4016,11 +4022,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -4039,7 +4045,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4053,10 +4059,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4065,14 +4071,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4082,11 +4088,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4098,14 +4104,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4115,11 +4121,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4131,14 +4137,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4148,11 +4154,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4164,14 +4170,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4181,11 +4187,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4204,7 +4210,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4214,14 +4220,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4230,14 +4236,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4247,14 +4253,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4263,14 +4269,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4280,14 +4286,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4296,14 +4302,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4313,14 +4319,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4329,14 +4335,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4346,14 +4352,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4362,14 +4368,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4379,14 +4385,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4395,7 +4401,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4412,11 +4418,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4435,7 +4441,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4445,14 +4451,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4461,14 +4467,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4478,14 +4484,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4494,14 +4500,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4511,11 +4517,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4534,7 +4540,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4544,11 +4550,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>75</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4560,14 +4566,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4577,11 +4583,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4593,14 +4599,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4610,14 +4616,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4626,14 +4632,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4643,14 +4649,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>52</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4666,7 +4672,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4676,11 +4682,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>30</v>
@@ -4699,7 +4705,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4709,11 +4715,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>152</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>30</v>
@@ -4725,14 +4731,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4742,14 +4748,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4758,14 +4764,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4775,14 +4781,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>267</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4791,14 +4797,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4808,14 +4814,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>30</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4824,14 +4830,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4841,14 +4847,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>53</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4874,11 +4880,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>88</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4890,7 +4896,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4903,18 +4909,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4923,31 +4929,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4956,14 +4962,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4973,14 +4979,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4989,14 +4995,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5006,14 +5012,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5022,14 +5028,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5039,14 +5045,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5055,14 +5061,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5072,14 +5078,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5088,14 +5094,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5105,14 +5111,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5121,28 +5127,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>55</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>56</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>30</v>
@@ -5161,21 +5167,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>30</v>
@@ -5194,7 +5200,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>51</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5204,11 +5210,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>30</v>
@@ -5220,14 +5226,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5237,14 +5243,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5253,14 +5259,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5270,14 +5276,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5286,14 +5292,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5303,11 +5309,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5319,14 +5325,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5336,11 +5342,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5352,7 +5358,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5369,11 +5375,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>232</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5385,14 +5391,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5402,14 +5408,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5418,14 +5424,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5435,11 +5441,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>30</v>
@@ -5451,14 +5457,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>30</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5468,14 +5474,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>218</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5484,14 +5490,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5501,14 +5507,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>123</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>325</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5517,14 +5523,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5534,14 +5540,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5550,14 +5556,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5567,11 +5573,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5583,14 +5589,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>333</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5600,11 +5606,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5616,14 +5622,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>334</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5633,11 +5639,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5649,7 +5655,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5666,14 +5672,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>149</v>
+        <v>336</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5682,14 +5688,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>340</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5699,14 +5705,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>341</v>
+        <v>152</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5715,14 +5721,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5732,14 +5738,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>130</v>
+        <v>342</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5748,14 +5754,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5765,11 +5771,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>346</v>
+        <v>133</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5781,14 +5787,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5798,11 +5804,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>273</v>
+        <v>347</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5821,21 +5827,21 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5847,14 +5853,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>351</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5864,14 +5870,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5880,14 +5886,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>356</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5897,14 +5903,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>358</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5913,14 +5919,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>357</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5930,11 +5936,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>42</v>
+        <v>358</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>43</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5963,14 +5969,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>361</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5979,7 +5985,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5996,14 +6002,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6029,14 +6035,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>364</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>357</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6045,14 +6051,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6062,14 +6068,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>248</v>
+        <v>355</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6095,14 +6101,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>367</v>
+        <v>249</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>233</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6111,14 +6117,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6128,11 +6134,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6144,14 +6150,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6161,11 +6167,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>248</v>
+        <v>370</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6177,14 +6183,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6194,14 +6200,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6210,14 +6216,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>12</v>
+        <v>373</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6227,11 +6233,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>249</v>
+        <v>374</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6243,14 +6249,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6260,11 +6266,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>377</v>
+        <v>249</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>378</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6276,14 +6282,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6293,11 +6299,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>248</v>
+        <v>377</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6309,14 +6315,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6326,49 +6332,115 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>380</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>12</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>13</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>241</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
         <v>374</v>
       </c>
-      <c t="s" r="Q144" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" ht="24.75" customHeight="1">
-      <c r="P145" s="13">
-        <v>6992.9549999999999</v>
-      </c>
-      <c r="Q145" s="13"/>
-    </row>
-    <row r="146" ht="16.5" customHeight="1">
-      <c t="s" r="A146" s="14">
+      <c t="s" r="Q145" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
         <v>381</v>
       </c>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c t="s" r="G146" s="15">
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>173</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>13</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
         <v>382</v>
       </c>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="16"/>
-      <c t="s" r="K146" s="17">
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="P147" s="13">
+        <v>7088.5950000000003</v>
+      </c>
+      <c r="Q147" s="13"/>
+    </row>
+    <row r="148" ht="16.5" customHeight="1">
+      <c t="s" r="A148" s="14">
         <v>383</v>
       </c>
-      <c r="L146" s="17"/>
-      <c r="M146" s="17"/>
-      <c r="N146" s="17"/>
-      <c r="O146" s="17"/>
-      <c r="P146" s="17"/>
-      <c r="Q146" s="17"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D14